--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F0363C-5C28-4A6D-9E7B-58443FAC88F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF74E6DB-9EF7-46EA-800D-8732A37A6CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="145">
   <si>
     <t>Project Planner</t>
   </si>
@@ -406,21 +406,12 @@
     <t>Check Solar Panel Specifications</t>
   </si>
   <si>
-    <t>Spice Analysis of Power Supplies</t>
-  </si>
-  <si>
     <t>Verify C-Rate and Discharge Rate for selcted Battery</t>
   </si>
   <si>
-    <t>Layout Development</t>
-  </si>
-  <si>
     <t>Firmware Development</t>
   </si>
   <si>
-    <t>Application Development</t>
-  </si>
-  <si>
     <t>PCB Assembly</t>
   </si>
   <si>
@@ -436,10 +427,130 @@
     <t>Schematic Development</t>
   </si>
   <si>
-    <t>Layout Review</t>
-  </si>
-  <si>
     <t>Layout Routing</t>
+  </si>
+  <si>
+    <t>Altium Library: Add Decoupling Capacitors for ICs</t>
+  </si>
+  <si>
+    <t>Altium Library: Add pull up Resistors for ICs</t>
+  </si>
+  <si>
+    <t>Altium Library: Modify Vias as per review</t>
+  </si>
+  <si>
+    <t>Aneesh, Devang, Vaisnavi</t>
+  </si>
+  <si>
+    <t>Schematic:Block Diagram</t>
+  </si>
+  <si>
+    <t>Schematic: PTFV_PMIC_PWR</t>
+  </si>
+  <si>
+    <t>Schematic: PTFV_GECKO_PWR</t>
+  </si>
+  <si>
+    <t>Schematic: PTFV_GECKO_RF</t>
+  </si>
+  <si>
+    <t>Schematic: PTFV_GECKO_GPIO</t>
+  </si>
+  <si>
+    <t>Schematic Review: Aneesh</t>
+  </si>
+  <si>
+    <t>Schematic Review: Devang</t>
+  </si>
+  <si>
+    <t>Schematic Review: Vaishnavi</t>
+  </si>
+  <si>
+    <t>Altium Library: Add resistors for PMIC</t>
+  </si>
+  <si>
+    <t>Altium Library: Add Inductors for GECKO</t>
+  </si>
+  <si>
+    <t>Component Placement Analysis</t>
+  </si>
+  <si>
+    <t>Aneesh, Vaishnavi</t>
+  </si>
+  <si>
+    <t>Component Placement</t>
+  </si>
+  <si>
+    <t>Testing Bare PCB's</t>
+  </si>
+  <si>
+    <t>Placement and Soldering</t>
+  </si>
+  <si>
+    <t>Reflow if needed</t>
+  </si>
+  <si>
+    <t>Bring up power test</t>
+  </si>
+  <si>
+    <t>Basic MCU programming check</t>
+  </si>
+  <si>
+    <t>Verfying sensor communication</t>
+  </si>
+  <si>
+    <t>Verify Bluetooth Communication</t>
+  </si>
+  <si>
+    <t>Verify and improvise application firmware</t>
+  </si>
+  <si>
+    <t>Final Design Check</t>
+  </si>
+  <si>
+    <t>Aneesh,Vaishnavi,Devang</t>
+  </si>
+  <si>
+    <t>Load power management for GPS</t>
+  </si>
+  <si>
+    <t>Load power management for LIS3DH</t>
+  </si>
+  <si>
+    <t>Load power management for MAX30102</t>
+  </si>
+  <si>
+    <t>Algorithm and State Machine Development</t>
+  </si>
+  <si>
+    <t>Unit Test</t>
+  </si>
+  <si>
+    <t>Integration Testing and Debugging</t>
+  </si>
+  <si>
+    <t>Android Mobile Application Development</t>
+  </si>
+  <si>
+    <t>Selection of development platform</t>
+  </si>
+  <si>
+    <t>Creating a 'Hello World' initial demo app</t>
+  </si>
+  <si>
+    <t>Designing UI</t>
+  </si>
+  <si>
+    <t>Linking bluetooth to demo application</t>
+  </si>
+  <si>
+    <t>Add storage support for bluetooth data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load power management of System </t>
+  </si>
+  <si>
+    <t>Application Testing</t>
   </si>
 </sst>
 </file>
@@ -617,18 +728,21 @@
       <b/>
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="7"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -716,7 +830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -875,6 +989,56 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -942,7 +1106,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,18 +1233,12 @@
     <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1129,6 +1287,42 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
@@ -1177,25 +1371,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,7 +1423,55 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1332,6 +1583,119 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1613,17 +1977,20 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:FG91"/>
+  <dimension ref="B1:FG123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
+      <pane xSplit="9" ySplit="9" topLeftCell="J90" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="48.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="66" customWidth="1"/>
     <col min="4" max="7" width="11.625" style="1" customWidth="1"/>
     <col min="8" max="9" width="15.625" style="4" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
@@ -1646,13 +2013,8 @@
     <col min="112" max="126" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:163" s="24" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+    <row r="1" spans="2:163" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C1" s="68"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="29" t="s">
@@ -1809,7 +2171,7 @@
     </row>
     <row r="2" spans="2:163" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="26"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -1837,45 +2199,45 @@
       <c r="AB2" s="35"/>
       <c r="AC2" s="27"/>
       <c r="AK2" s="35"/>
-      <c r="AP2" s="66" t="s">
+      <c r="AP2" s="76" t="s">
         <v>40</v>
       </c>
       <c r="AR2" s="35"/>
-      <c r="AW2" s="66" t="s">
+      <c r="AW2" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="BD2" s="66" t="s">
+      <c r="BD2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="BI2" s="62" t="s">
+      <c r="BI2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="BK2" s="66" t="s">
+      <c r="BK2" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="BN2" s="62" t="s">
+      <c r="BN2" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="66" t="s">
+      <c r="BR2" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="BY2" s="66" t="s">
+      <c r="BY2" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="CH2" s="66" t="s">
+      <c r="CH2" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="CN2" s="65" t="s">
+      <c r="CN2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="CO2" s="65"/>
-      <c r="CP2" s="65"/>
-      <c r="CQ2" s="65"/>
-      <c r="CR2" s="65"/>
-      <c r="CS2" s="65"/>
-      <c r="CT2" s="65"/>
-      <c r="CU2" s="65"/>
-      <c r="CV2" s="66" t="s">
+      <c r="CO2" s="75"/>
+      <c r="CP2" s="75"/>
+      <c r="CQ2" s="75"/>
+      <c r="CR2" s="75"/>
+      <c r="CS2" s="75"/>
+      <c r="CT2" s="75"/>
+      <c r="CU2" s="75"/>
+      <c r="CV2" s="76" t="s">
         <v>50</v>
       </c>
       <c r="DA2" s="35"/>
@@ -1886,13 +2248,13 @@
       <c r="DH2" s="35"/>
       <c r="DI2" s="35"/>
       <c r="DJ2" s="35"/>
-      <c r="DK2" s="62" t="s">
+      <c r="DK2" s="72" t="s">
         <v>51</v>
       </c>
       <c r="DO2" s="36"/>
       <c r="DP2" s="36"/>
       <c r="DQ2" s="36"/>
-      <c r="DR2" s="64" t="s">
+      <c r="DR2" s="74" t="s">
         <v>52</v>
       </c>
       <c r="DS2" s="36"/>
@@ -1901,7 +2263,7 @@
     </row>
     <row r="3" spans="2:163" s="24" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="C3" s="69"/>
       <c r="E3" s="20" t="s">
         <v>1</v>
       </c>
@@ -1914,24 +2276,24 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="14">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="75"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="85"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="73" t="s">
+      <c r="U3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="75"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="85"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="21" t="s">
         <v>6</v>
@@ -1942,38 +2304,38 @@
       <c r="AE3" s="22"/>
       <c r="AF3" s="22"/>
       <c r="AG3" s="23"/>
-      <c r="AP3" s="63"/>
+      <c r="AP3" s="73"/>
       <c r="AU3" s="33"/>
       <c r="AV3" s="33"/>
-      <c r="AW3" s="63"/>
+      <c r="AW3" s="73"/>
       <c r="AX3" s="32"/>
       <c r="AY3" s="33"/>
       <c r="AZ3" s="33"/>
       <c r="BA3" s="33"/>
       <c r="BB3" s="33"/>
       <c r="BC3" s="33"/>
-      <c r="BD3" s="63"/>
+      <c r="BD3" s="73"/>
       <c r="BE3" s="32"/>
       <c r="BF3" s="33"/>
       <c r="BG3" s="33"/>
       <c r="BH3" s="33"/>
-      <c r="BI3" s="63"/>
+      <c r="BI3" s="73"/>
       <c r="BJ3" s="33"/>
-      <c r="BK3" s="63"/>
+      <c r="BK3" s="73"/>
       <c r="BL3" s="32"/>
       <c r="BM3" s="33"/>
-      <c r="BN3" s="63"/>
+      <c r="BN3" s="73"/>
       <c r="BO3" s="33"/>
       <c r="BP3" s="33"/>
       <c r="BQ3" s="33"/>
-      <c r="BR3" s="63"/>
+      <c r="BR3" s="73"/>
       <c r="BS3" s="32"/>
       <c r="BT3" s="33"/>
       <c r="BU3" s="33"/>
       <c r="BV3" s="33"/>
       <c r="BW3" s="33"/>
       <c r="BX3" s="33"/>
-      <c r="BY3" s="63"/>
+      <c r="BY3" s="73"/>
       <c r="BZ3" s="32"/>
       <c r="CA3" s="33"/>
       <c r="CB3" s="33"/>
@@ -1982,21 +2344,21 @@
       <c r="CE3" s="33"/>
       <c r="CF3" s="33"/>
       <c r="CG3" s="32"/>
-      <c r="CH3" s="63"/>
+      <c r="CH3" s="73"/>
       <c r="CI3" s="33"/>
       <c r="CJ3" s="33"/>
       <c r="CK3" s="33"/>
       <c r="CL3" s="33"/>
       <c r="CM3" s="33"/>
-      <c r="CN3" s="63"/>
-      <c r="CO3" s="63"/>
-      <c r="CP3" s="63"/>
-      <c r="CQ3" s="63"/>
-      <c r="CR3" s="63"/>
-      <c r="CS3" s="63"/>
-      <c r="CT3" s="63"/>
-      <c r="CU3" s="63"/>
-      <c r="CV3" s="63"/>
+      <c r="CN3" s="73"/>
+      <c r="CO3" s="73"/>
+      <c r="CP3" s="73"/>
+      <c r="CQ3" s="73"/>
+      <c r="CR3" s="73"/>
+      <c r="CS3" s="73"/>
+      <c r="CT3" s="73"/>
+      <c r="CU3" s="73"/>
+      <c r="CV3" s="73"/>
       <c r="CW3" s="33"/>
       <c r="CX3" s="33"/>
       <c r="CY3" s="33"/>
@@ -2011,14 +2373,14 @@
       <c r="DH3" s="33"/>
       <c r="DI3" s="32"/>
       <c r="DJ3" s="33"/>
-      <c r="DK3" s="63"/>
+      <c r="DK3" s="73"/>
       <c r="DL3" s="33"/>
       <c r="DM3" s="33"/>
       <c r="DN3" s="33"/>
       <c r="DO3" s="36"/>
       <c r="DP3" s="36"/>
       <c r="DQ3" s="36"/>
-      <c r="DR3" s="63"/>
+      <c r="DR3" s="73"/>
       <c r="DS3" s="36"/>
       <c r="DT3" s="33"/>
       <c r="DU3" s="33"/>
@@ -2036,117 +2398,119 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="87"/>
       <c r="Z4" s="19"/>
-      <c r="AA4" s="67" t="s">
+      <c r="AA4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AP4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BI4" s="63"/>
-      <c r="BK4" s="63"/>
-      <c r="BN4" s="63"/>
-      <c r="BR4" s="63"/>
-      <c r="BY4" s="63"/>
-      <c r="CH4" s="63"/>
-      <c r="CN4" s="63"/>
-      <c r="CO4" s="63"/>
-      <c r="CP4" s="63"/>
-      <c r="CQ4" s="63"/>
-      <c r="CR4" s="63"/>
-      <c r="CS4" s="63"/>
-      <c r="CT4" s="63"/>
-      <c r="CU4" s="63"/>
-      <c r="CV4" s="63"/>
-      <c r="DK4" s="63"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AP4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="BD4" s="73"/>
+      <c r="BI4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BN4" s="73"/>
+      <c r="BR4" s="73"/>
+      <c r="BY4" s="73"/>
+      <c r="CH4" s="73"/>
+      <c r="CN4" s="73"/>
+      <c r="CO4" s="73"/>
+      <c r="CP4" s="73"/>
+      <c r="CQ4" s="73"/>
+      <c r="CR4" s="73"/>
+      <c r="CS4" s="73"/>
+      <c r="CT4" s="73"/>
+      <c r="CU4" s="73"/>
+      <c r="CV4" s="73"/>
+      <c r="DK4" s="73"/>
       <c r="DO4" s="36"/>
       <c r="DP4" s="36"/>
       <c r="DQ4" s="36"/>
-      <c r="DR4" s="63"/>
+      <c r="DR4" s="73"/>
       <c r="DS4" s="36"/>
     </row>
     <row r="5" spans="2:163" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="34"/>
-      <c r="AP5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="BD5" s="63"/>
-      <c r="BI5" s="63"/>
-      <c r="BK5" s="63"/>
-      <c r="BN5" s="63"/>
-      <c r="BR5" s="63"/>
-      <c r="BY5" s="63"/>
-      <c r="CH5" s="63"/>
-      <c r="CN5" s="63"/>
-      <c r="CO5" s="63"/>
-      <c r="CP5" s="63"/>
-      <c r="CQ5" s="63"/>
-      <c r="CR5" s="63"/>
-      <c r="CS5" s="63"/>
-      <c r="CT5" s="63"/>
-      <c r="CU5" s="63"/>
-      <c r="CV5" s="63"/>
-      <c r="DK5" s="63"/>
+      <c r="AP5" s="73"/>
+      <c r="AW5" s="73"/>
+      <c r="BD5" s="73"/>
+      <c r="BI5" s="73"/>
+      <c r="BK5" s="73"/>
+      <c r="BN5" s="73"/>
+      <c r="BR5" s="73"/>
+      <c r="BY5" s="73"/>
+      <c r="CH5" s="73"/>
+      <c r="CN5" s="73"/>
+      <c r="CO5" s="73"/>
+      <c r="CP5" s="73"/>
+      <c r="CQ5" s="73"/>
+      <c r="CR5" s="73"/>
+      <c r="CS5" s="73"/>
+      <c r="CT5" s="73"/>
+      <c r="CU5" s="73"/>
+      <c r="CV5" s="73"/>
+      <c r="DK5" s="73"/>
       <c r="DO5" s="36"/>
       <c r="DP5" s="36"/>
       <c r="DQ5" s="36"/>
-      <c r="DR5" s="63"/>
+      <c r="DR5" s="73"/>
       <c r="DS5" s="36"/>
     </row>
     <row r="6" spans="2:163" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="34"/>
       <c r="J6" s="37"/>
       <c r="M6" s="37"/>
-      <c r="AP6" s="63"/>
-      <c r="AW6" s="63"/>
-      <c r="BD6" s="63"/>
-      <c r="BI6" s="63"/>
-      <c r="BK6" s="63"/>
-      <c r="BN6" s="63"/>
-      <c r="BR6" s="63"/>
-      <c r="BY6" s="63"/>
-      <c r="CH6" s="63"/>
-      <c r="CN6" s="63"/>
-      <c r="CO6" s="63"/>
-      <c r="CP6" s="63"/>
-      <c r="CQ6" s="63"/>
-      <c r="CR6" s="63"/>
-      <c r="CS6" s="63"/>
-      <c r="CT6" s="63"/>
-      <c r="CU6" s="63"/>
-      <c r="CV6" s="63"/>
-      <c r="DK6" s="63"/>
+      <c r="AP6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BR6" s="73"/>
+      <c r="BY6" s="73"/>
+      <c r="CH6" s="73"/>
+      <c r="CN6" s="73"/>
+      <c r="CO6" s="73"/>
+      <c r="CP6" s="73"/>
+      <c r="CQ6" s="73"/>
+      <c r="CR6" s="73"/>
+      <c r="CS6" s="73"/>
+      <c r="CT6" s="73"/>
+      <c r="CU6" s="73"/>
+      <c r="CV6" s="73"/>
+      <c r="DK6" s="73"/>
       <c r="DO6" s="36"/>
       <c r="DP6" s="36"/>
       <c r="DQ6" s="36"/>
-      <c r="DR6" s="63"/>
+      <c r="DR6" s="73"/>
       <c r="DS6" s="36"/>
     </row>
-    <row r="7" spans="2:163" s="53" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+    <row r="7" spans="2:163" s="51" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="41">
         <v>45166</v>
       </c>
@@ -2165,310 +2529,310 @@
       <c r="O7" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="47">
         <v>45173</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="47">
         <v>45174</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="47">
         <v>45175</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="47">
         <v>45176</v>
       </c>
-      <c r="T7" s="49">
+      <c r="T7" s="47">
         <v>45177</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="47">
         <v>45178</v>
       </c>
-      <c r="V7" s="49">
+      <c r="V7" s="47">
         <v>45179</v>
       </c>
-      <c r="W7" s="49">
+      <c r="W7" s="47">
         <v>45180</v>
       </c>
-      <c r="X7" s="49">
+      <c r="X7" s="47">
         <v>45181</v>
       </c>
-      <c r="Y7" s="49">
+      <c r="Y7" s="47">
         <v>45182</v>
       </c>
-      <c r="Z7" s="49">
+      <c r="Z7" s="47">
         <v>45183</v>
       </c>
-      <c r="AA7" s="49">
+      <c r="AA7" s="47">
         <v>45184</v>
       </c>
-      <c r="AB7" s="49">
+      <c r="AB7" s="47">
         <v>45185</v>
       </c>
-      <c r="AC7" s="49">
+      <c r="AC7" s="47">
         <v>45186</v>
       </c>
-      <c r="AD7" s="49">
+      <c r="AD7" s="47">
         <v>45187</v>
       </c>
-      <c r="AE7" s="49">
+      <c r="AE7" s="47">
         <v>45188</v>
       </c>
-      <c r="AF7" s="49">
+      <c r="AF7" s="47">
         <v>45189</v>
       </c>
-      <c r="AG7" s="49">
+      <c r="AG7" s="47">
         <v>45190</v>
       </c>
-      <c r="AH7" s="49">
+      <c r="AH7" s="47">
         <v>45191</v>
       </c>
-      <c r="AI7" s="49">
+      <c r="AI7" s="47">
         <v>45192</v>
       </c>
-      <c r="AJ7" s="49">
+      <c r="AJ7" s="47">
         <v>45193</v>
       </c>
-      <c r="AK7" s="49">
+      <c r="AK7" s="47">
         <v>45194</v>
       </c>
-      <c r="AL7" s="49">
+      <c r="AL7" s="47">
         <v>45195</v>
       </c>
-      <c r="AM7" s="49">
+      <c r="AM7" s="47">
         <v>45196</v>
       </c>
-      <c r="AN7" s="49">
+      <c r="AN7" s="47">
         <v>45197</v>
       </c>
-      <c r="AO7" s="49">
+      <c r="AO7" s="47">
         <v>45198</v>
       </c>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="49">
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="47">
         <v>45200</v>
       </c>
-      <c r="AR7" s="49">
+      <c r="AR7" s="47">
         <v>45201</v>
       </c>
-      <c r="AS7" s="49">
+      <c r="AS7" s="47">
         <v>45202</v>
       </c>
-      <c r="AT7" s="49">
+      <c r="AT7" s="47">
         <v>45203</v>
       </c>
-      <c r="AU7" s="49">
+      <c r="AU7" s="47">
         <v>45204</v>
       </c>
-      <c r="AV7" s="49">
+      <c r="AV7" s="47">
         <v>45205</v>
       </c>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="49">
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="47">
         <v>45207</v>
       </c>
-      <c r="AY7" s="49">
+      <c r="AY7" s="47">
         <v>45208</v>
       </c>
-      <c r="AZ7" s="49">
+      <c r="AZ7" s="47">
         <v>45209</v>
       </c>
-      <c r="BA7" s="49">
+      <c r="BA7" s="47">
         <v>45210</v>
       </c>
-      <c r="BB7" s="49">
+      <c r="BB7" s="47">
         <v>45211</v>
       </c>
-      <c r="BC7" s="49">
+      <c r="BC7" s="47">
         <v>45212</v>
       </c>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="49">
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="47">
         <v>45214</v>
       </c>
-      <c r="BF7" s="49">
+      <c r="BF7" s="47">
         <v>45215</v>
       </c>
-      <c r="BG7" s="49">
+      <c r="BG7" s="47">
         <v>45216</v>
       </c>
-      <c r="BH7" s="49">
+      <c r="BH7" s="47">
         <v>45217</v>
       </c>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="49">
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="47">
         <v>45219</v>
       </c>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="49">
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="47">
         <v>45221</v>
       </c>
-      <c r="BM7" s="49">
+      <c r="BM7" s="47">
         <v>45222</v>
       </c>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="49">
+      <c r="BN7" s="73"/>
+      <c r="BO7" s="47">
         <v>45224</v>
       </c>
-      <c r="BP7" s="49">
+      <c r="BP7" s="47">
         <v>45225</v>
       </c>
-      <c r="BQ7" s="49">
+      <c r="BQ7" s="47">
         <v>45226</v>
       </c>
-      <c r="BR7" s="63"/>
-      <c r="BS7" s="49">
+      <c r="BR7" s="73"/>
+      <c r="BS7" s="47">
         <v>45228</v>
       </c>
-      <c r="BT7" s="49">
+      <c r="BT7" s="47">
         <v>45229</v>
       </c>
-      <c r="BU7" s="49">
+      <c r="BU7" s="47">
         <v>45230</v>
       </c>
-      <c r="BV7" s="49">
+      <c r="BV7" s="47">
         <v>45231</v>
       </c>
-      <c r="BW7" s="49">
+      <c r="BW7" s="47">
         <v>45232</v>
       </c>
-      <c r="BX7" s="49">
+      <c r="BX7" s="47">
         <v>45233</v>
       </c>
-      <c r="BY7" s="63"/>
-      <c r="BZ7" s="49">
+      <c r="BY7" s="73"/>
+      <c r="BZ7" s="47">
         <v>45235</v>
       </c>
-      <c r="CA7" s="49">
+      <c r="CA7" s="47">
         <v>45236</v>
       </c>
-      <c r="CB7" s="49">
+      <c r="CB7" s="47">
         <v>45237</v>
       </c>
-      <c r="CC7" s="49">
+      <c r="CC7" s="47">
         <v>45238</v>
       </c>
-      <c r="CD7" s="49">
+      <c r="CD7" s="47">
         <v>45239</v>
       </c>
-      <c r="CE7" s="49">
+      <c r="CE7" s="47">
         <v>45240</v>
       </c>
-      <c r="CF7" s="49">
+      <c r="CF7" s="47">
         <v>45241</v>
       </c>
-      <c r="CG7" s="49">
+      <c r="CG7" s="47">
         <v>45242</v>
       </c>
-      <c r="CH7" s="63"/>
-      <c r="CI7" s="49">
+      <c r="CH7" s="73"/>
+      <c r="CI7" s="47">
         <v>45244</v>
       </c>
-      <c r="CJ7" s="49">
+      <c r="CJ7" s="47">
         <v>45245</v>
       </c>
-      <c r="CK7" s="49">
+      <c r="CK7" s="47">
         <v>45246</v>
       </c>
-      <c r="CL7" s="49">
+      <c r="CL7" s="47">
         <v>45247</v>
       </c>
-      <c r="CM7" s="49">
+      <c r="CM7" s="47">
         <v>45248</v>
       </c>
-      <c r="CN7" s="63"/>
-      <c r="CO7" s="63"/>
-      <c r="CP7" s="63"/>
-      <c r="CQ7" s="63"/>
-      <c r="CR7" s="63"/>
-      <c r="CS7" s="63"/>
-      <c r="CT7" s="63"/>
-      <c r="CU7" s="63"/>
-      <c r="CV7" s="63"/>
-      <c r="CW7" s="49">
+      <c r="CN7" s="73"/>
+      <c r="CO7" s="73"/>
+      <c r="CP7" s="73"/>
+      <c r="CQ7" s="73"/>
+      <c r="CR7" s="73"/>
+      <c r="CS7" s="73"/>
+      <c r="CT7" s="73"/>
+      <c r="CU7" s="73"/>
+      <c r="CV7" s="73"/>
+      <c r="CW7" s="47">
         <v>45257</v>
       </c>
-      <c r="CX7" s="49">
+      <c r="CX7" s="47">
         <v>45258</v>
       </c>
-      <c r="CY7" s="49">
+      <c r="CY7" s="47">
         <v>45259</v>
       </c>
-      <c r="CZ7" s="49">
+      <c r="CZ7" s="47">
         <v>45260</v>
       </c>
-      <c r="DA7" s="49">
+      <c r="DA7" s="47">
         <v>45261</v>
       </c>
-      <c r="DB7" s="49">
+      <c r="DB7" s="47">
         <v>45262</v>
       </c>
-      <c r="DC7" s="49">
+      <c r="DC7" s="47">
         <v>45263</v>
       </c>
-      <c r="DD7" s="49">
+      <c r="DD7" s="47">
         <v>45264</v>
       </c>
-      <c r="DE7" s="49">
+      <c r="DE7" s="47">
         <v>45265</v>
       </c>
-      <c r="DF7" s="49">
+      <c r="DF7" s="47">
         <v>45266</v>
       </c>
-      <c r="DG7" s="49">
+      <c r="DG7" s="47">
         <v>45267</v>
       </c>
-      <c r="DH7" s="49">
+      <c r="DH7" s="47">
         <v>45268</v>
       </c>
-      <c r="DI7" s="49">
+      <c r="DI7" s="47">
         <v>45269</v>
       </c>
-      <c r="DJ7" s="49">
+      <c r="DJ7" s="47">
         <v>45270</v>
       </c>
-      <c r="DK7" s="63"/>
-      <c r="DL7" s="49">
+      <c r="DK7" s="73"/>
+      <c r="DL7" s="47">
         <v>45271</v>
       </c>
-      <c r="DM7" s="49">
+      <c r="DM7" s="47">
         <v>45272</v>
       </c>
-      <c r="DN7" s="49">
+      <c r="DN7" s="47">
         <v>45273</v>
       </c>
-      <c r="DO7" s="50" t="s">
+      <c r="DO7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="DP7" s="51"/>
-      <c r="DQ7" s="51"/>
-      <c r="DR7" s="63"/>
-      <c r="DS7" s="51"/>
-      <c r="DT7" s="52"/>
-      <c r="DU7" s="52"/>
+      <c r="DP7" s="49"/>
+      <c r="DQ7" s="49"/>
+      <c r="DR7" s="73"/>
+      <c r="DS7" s="49"/>
+      <c r="DT7" s="50"/>
+      <c r="DU7" s="50"/>
     </row>
     <row r="8" spans="2:163" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="80" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="40" t="s">
@@ -2495,14 +2859,14 @@
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="2:163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="39">
         <v>1</v>
       </c>
@@ -2856,10 +3220,10 @@
       </c>
     </row>
     <row r="10" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="7">
         <v>4</v>
       </c>
@@ -2915,25 +3279,25 @@
       <c r="FG10" s="38"/>
     </row>
     <row r="11" spans="2:163" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="56">
         <v>4</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="56">
         <v>4</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="56">
         <v>4</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="56">
         <v>4</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="57">
         <v>1</v>
       </c>
       <c r="I11" s="8"/>
@@ -2976,25 +3340,25 @@
       <c r="FG11" s="38"/>
     </row>
     <row r="12" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="56">
         <v>4</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="56">
         <v>2</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="56">
         <v>4</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="56">
         <v>2</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="57">
         <v>1</v>
       </c>
       <c r="I12" s="8"/>
@@ -3037,25 +3401,25 @@
       <c r="FG12" s="38"/>
     </row>
     <row r="13" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="56">
         <v>4</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="56">
         <v>3</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="56">
         <v>5</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="56">
         <v>3</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="57">
         <v>1</v>
       </c>
       <c r="I13" s="8"/>
@@ -3098,25 +3462,25 @@
       <c r="FG13" s="38"/>
     </row>
     <row r="14" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="56">
         <v>4</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="56">
         <v>3</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="56">
         <v>5</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="56">
         <v>3</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="57">
         <v>1</v>
       </c>
       <c r="I14" s="8"/>
@@ -3159,8 +3523,8 @@
       <c r="FG14" s="38"/>
     </row>
     <row r="15" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -3206,10 +3570,10 @@
       <c r="FG15" s="38"/>
     </row>
     <row r="16" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="7">
         <v>11</v>
       </c>
@@ -3222,7 +3586,9 @@
       <c r="G16" s="7">
         <v>17</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="DW16" s="38"/>
       <c r="DX16" s="38"/>
@@ -3263,25 +3629,25 @@
       <c r="FG16" s="38"/>
     </row>
     <row r="17" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="56">
         <v>18</v>
       </c>
-      <c r="E17" s="58">
-        <v>1</v>
-      </c>
-      <c r="F17" s="58">
+      <c r="E17" s="56">
+        <v>1</v>
+      </c>
+      <c r="F17" s="56">
         <v>18</v>
       </c>
-      <c r="G17" s="58">
-        <v>1</v>
-      </c>
-      <c r="H17" s="59">
+      <c r="G17" s="56">
+        <v>1</v>
+      </c>
+      <c r="H17" s="57">
         <v>1</v>
       </c>
       <c r="I17" s="8"/>
@@ -3324,25 +3690,25 @@
       <c r="FG17" s="38"/>
     </row>
     <row r="18" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="56">
         <v>13</v>
       </c>
-      <c r="E18" s="58">
-        <v>1</v>
-      </c>
-      <c r="F18" s="58">
+      <c r="E18" s="56">
+        <v>1</v>
+      </c>
+      <c r="F18" s="56">
         <v>13</v>
       </c>
-      <c r="G18" s="58">
-        <v>1</v>
-      </c>
-      <c r="H18" s="59">
+      <c r="G18" s="56">
+        <v>1</v>
+      </c>
+      <c r="H18" s="57">
         <v>1</v>
       </c>
       <c r="I18" s="8"/>
@@ -3385,25 +3751,25 @@
       <c r="FG18" s="38"/>
     </row>
     <row r="19" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="56">
         <v>15</v>
       </c>
-      <c r="E19" s="58">
-        <v>1</v>
-      </c>
-      <c r="F19" s="58">
+      <c r="E19" s="56">
+        <v>1</v>
+      </c>
+      <c r="F19" s="56">
         <v>15</v>
       </c>
-      <c r="G19" s="58">
-        <v>1</v>
-      </c>
-      <c r="H19" s="59">
+      <c r="G19" s="56">
+        <v>1</v>
+      </c>
+      <c r="H19" s="57">
         <v>1</v>
       </c>
       <c r="I19" s="8"/>
@@ -3446,25 +3812,25 @@
       <c r="FG19" s="38"/>
     </row>
     <row r="20" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="56">
         <v>26</v>
       </c>
-      <c r="E20" s="58">
-        <v>1</v>
-      </c>
-      <c r="F20" s="58">
+      <c r="E20" s="56">
+        <v>1</v>
+      </c>
+      <c r="F20" s="56">
         <v>26</v>
       </c>
-      <c r="G20" s="58">
-        <v>1</v>
-      </c>
-      <c r="H20" s="59">
+      <c r="G20" s="56">
+        <v>1</v>
+      </c>
+      <c r="H20" s="57">
         <v>1</v>
       </c>
       <c r="I20" s="8"/>
@@ -3507,25 +3873,25 @@
       <c r="FG20" s="38"/>
     </row>
     <row r="21" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="56">
         <v>26</v>
       </c>
-      <c r="E21" s="58">
-        <v>1</v>
-      </c>
-      <c r="F21" s="58">
+      <c r="E21" s="56">
+        <v>1</v>
+      </c>
+      <c r="F21" s="56">
         <v>26</v>
       </c>
-      <c r="G21" s="58">
-        <v>1</v>
-      </c>
-      <c r="H21" s="59">
+      <c r="G21" s="56">
+        <v>1</v>
+      </c>
+      <c r="H21" s="57">
         <v>1</v>
       </c>
       <c r="I21" s="8"/>
@@ -3568,25 +3934,25 @@
       <c r="FG21" s="38"/>
     </row>
     <row r="22" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="56">
         <v>11</v>
       </c>
-      <c r="E22" s="58">
-        <v>1</v>
-      </c>
-      <c r="F22" s="58">
+      <c r="E22" s="56">
+        <v>1</v>
+      </c>
+      <c r="F22" s="56">
         <v>11</v>
       </c>
-      <c r="G22" s="58">
-        <v>1</v>
-      </c>
-      <c r="H22" s="59">
+      <c r="G22" s="56">
+        <v>1</v>
+      </c>
+      <c r="H22" s="57">
         <v>1</v>
       </c>
       <c r="I22" s="8"/>
@@ -3629,25 +3995,25 @@
       <c r="FG22" s="38"/>
     </row>
     <row r="23" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="56">
         <v>12</v>
       </c>
-      <c r="E23" s="58">
-        <v>1</v>
-      </c>
-      <c r="F23" s="58">
+      <c r="E23" s="56">
+        <v>1</v>
+      </c>
+      <c r="F23" s="56">
         <v>12</v>
       </c>
-      <c r="G23" s="58">
-        <v>1</v>
-      </c>
-      <c r="H23" s="59">
+      <c r="G23" s="56">
+        <v>1</v>
+      </c>
+      <c r="H23" s="57">
         <v>1</v>
       </c>
       <c r="I23" s="8"/>
@@ -3690,25 +4056,25 @@
       <c r="FG23" s="38"/>
     </row>
     <row r="24" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="56">
         <v>15</v>
       </c>
-      <c r="E24" s="58">
-        <v>1</v>
-      </c>
-      <c r="F24" s="58">
+      <c r="E24" s="56">
+        <v>1</v>
+      </c>
+      <c r="F24" s="56">
         <v>15</v>
       </c>
-      <c r="G24" s="58">
-        <v>1</v>
-      </c>
-      <c r="H24" s="59">
+      <c r="G24" s="56">
+        <v>1</v>
+      </c>
+      <c r="H24" s="57">
         <v>1</v>
       </c>
       <c r="I24" s="8"/>
@@ -3751,25 +4117,25 @@
       <c r="FG24" s="38"/>
     </row>
     <row r="25" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="42" t="s">
+      <c r="B25" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="56">
         <v>27</v>
       </c>
-      <c r="E25" s="58">
-        <v>1</v>
-      </c>
-      <c r="F25" s="58">
+      <c r="E25" s="56">
+        <v>1</v>
+      </c>
+      <c r="F25" s="56">
         <v>27</v>
       </c>
-      <c r="G25" s="58">
-        <v>1</v>
-      </c>
-      <c r="H25" s="59">
+      <c r="G25" s="56">
+        <v>1</v>
+      </c>
+      <c r="H25" s="57">
         <v>1</v>
       </c>
       <c r="I25" s="8"/>
@@ -3812,13 +4178,13 @@
       <c r="FG25" s="38"/>
     </row>
     <row r="26" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="8"/>
       <c r="DW26" s="38"/>
       <c r="DX26" s="38"/>
@@ -3862,7 +4228,6 @@
       <c r="B27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="6"/>
       <c r="D27" s="7">
         <v>13</v>
       </c>
@@ -3875,7 +4240,9 @@
       <c r="G27" s="7">
         <v>16</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8">
+        <v>0.8</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="DW27" s="38"/>
       <c r="DX27" s="38"/>
@@ -3916,25 +4283,25 @@
       <c r="FG27" s="38"/>
     </row>
     <row r="28" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="56">
         <v>13</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="56">
         <v>2</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="56">
         <v>14</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="56">
         <v>2</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="57">
         <v>1</v>
       </c>
       <c r="I28" s="8"/>
@@ -3977,25 +4344,25 @@
       <c r="FG28" s="38"/>
     </row>
     <row r="29" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="56">
         <v>14</v>
       </c>
-      <c r="E29" s="58">
-        <v>1</v>
-      </c>
-      <c r="F29" s="58">
+      <c r="E29" s="56">
+        <v>1</v>
+      </c>
+      <c r="F29" s="56">
         <v>15</v>
       </c>
-      <c r="G29" s="58">
-        <v>1</v>
-      </c>
-      <c r="H29" s="59">
+      <c r="G29" s="56">
+        <v>1</v>
+      </c>
+      <c r="H29" s="57">
         <v>1</v>
       </c>
       <c r="I29" s="8"/>
@@ -4038,25 +4405,25 @@
       <c r="FG29" s="38"/>
     </row>
     <row r="30" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="56">
         <v>17</v>
       </c>
-      <c r="E30" s="58">
-        <v>1</v>
-      </c>
-      <c r="F30" s="58">
+      <c r="E30" s="56">
+        <v>1</v>
+      </c>
+      <c r="F30" s="56">
         <v>22</v>
       </c>
-      <c r="G30" s="58">
-        <v>1</v>
-      </c>
-      <c r="H30" s="59">
+      <c r="G30" s="56">
+        <v>1</v>
+      </c>
+      <c r="H30" s="57">
         <v>1</v>
       </c>
       <c r="I30" s="8"/>
@@ -4099,25 +4466,25 @@
       <c r="FG30" s="38"/>
     </row>
     <row r="31" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="56">
         <v>20</v>
       </c>
-      <c r="E31" s="58">
-        <v>1</v>
-      </c>
-      <c r="F31" s="58">
+      <c r="E31" s="56">
+        <v>1</v>
+      </c>
+      <c r="F31" s="56">
         <v>23</v>
       </c>
-      <c r="G31" s="58">
-        <v>1</v>
-      </c>
-      <c r="H31" s="59">
+      <c r="G31" s="56">
+        <v>1</v>
+      </c>
+      <c r="H31" s="57">
         <v>1</v>
       </c>
       <c r="I31" s="8"/>
@@ -4160,25 +4527,25 @@
       <c r="FG31" s="38"/>
     </row>
     <row r="32" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="56">
         <v>20</v>
       </c>
-      <c r="E32" s="58">
-        <v>1</v>
-      </c>
-      <c r="F32" s="58">
+      <c r="E32" s="56">
+        <v>1</v>
+      </c>
+      <c r="F32" s="56">
         <v>23</v>
       </c>
-      <c r="G32" s="58">
-        <v>1</v>
-      </c>
-      <c r="H32" s="59">
+      <c r="G32" s="56">
+        <v>1</v>
+      </c>
+      <c r="H32" s="57">
         <v>1</v>
       </c>
       <c r="I32" s="8"/>
@@ -4221,25 +4588,25 @@
       <c r="FG32" s="38"/>
     </row>
     <row r="33" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="56">
         <v>20</v>
       </c>
-      <c r="E33" s="58">
-        <v>1</v>
-      </c>
-      <c r="F33" s="58">
+      <c r="E33" s="56">
+        <v>1</v>
+      </c>
+      <c r="F33" s="56">
         <v>23</v>
       </c>
-      <c r="G33" s="58">
-        <v>1</v>
-      </c>
-      <c r="H33" s="59">
+      <c r="G33" s="56">
+        <v>1</v>
+      </c>
+      <c r="H33" s="57">
         <v>1</v>
       </c>
       <c r="I33" s="8"/>
@@ -4282,25 +4649,25 @@
       <c r="FG33" s="38"/>
     </row>
     <row r="34" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="56">
         <v>27</v>
       </c>
-      <c r="E34" s="58">
-        <v>1</v>
-      </c>
-      <c r="F34" s="58">
+      <c r="E34" s="56">
+        <v>1</v>
+      </c>
+      <c r="F34" s="56">
         <v>28</v>
       </c>
-      <c r="G34" s="58">
-        <v>1</v>
-      </c>
-      <c r="H34" s="59">
+      <c r="G34" s="56">
+        <v>1</v>
+      </c>
+      <c r="H34" s="57">
         <v>1</v>
       </c>
       <c r="I34" s="8"/>
@@ -4343,25 +4710,25 @@
       <c r="FG34" s="38"/>
     </row>
     <row r="35" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="56">
         <v>27</v>
       </c>
-      <c r="E35" s="58">
-        <v>1</v>
-      </c>
-      <c r="F35" s="58">
+      <c r="E35" s="56">
+        <v>1</v>
+      </c>
+      <c r="F35" s="56">
         <v>28</v>
       </c>
-      <c r="G35" s="58">
-        <v>1</v>
-      </c>
-      <c r="H35" s="59">
+      <c r="G35" s="56">
+        <v>1</v>
+      </c>
+      <c r="H35" s="57">
         <v>1</v>
       </c>
       <c r="I35" s="8"/>
@@ -4404,25 +4771,25 @@
       <c r="FG35" s="38"/>
     </row>
     <row r="36" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="58">
+      <c r="D36" s="56">
         <v>27</v>
       </c>
-      <c r="E36" s="58">
-        <v>1</v>
-      </c>
-      <c r="F36" s="58">
+      <c r="E36" s="56">
+        <v>1</v>
+      </c>
+      <c r="F36" s="56">
         <v>28</v>
       </c>
-      <c r="G36" s="58">
-        <v>1</v>
-      </c>
-      <c r="H36" s="59">
+      <c r="G36" s="56">
+        <v>1</v>
+      </c>
+      <c r="H36" s="57">
         <v>1</v>
       </c>
       <c r="I36" s="8"/>
@@ -4464,26 +4831,26 @@
       <c r="FF36" s="38"/>
       <c r="FG36" s="38"/>
     </row>
-    <row r="37" spans="2:163" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="54" t="s">
+    <row r="37" spans="2:163" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="56">
         <v>29</v>
       </c>
-      <c r="E37" s="58">
-        <v>1</v>
-      </c>
-      <c r="F37" s="58">
+      <c r="E37" s="56">
+        <v>1</v>
+      </c>
+      <c r="F37" s="56">
         <v>29</v>
       </c>
-      <c r="G37" s="58">
-        <v>1</v>
-      </c>
-      <c r="H37" s="59">
+      <c r="G37" s="56">
+        <v>1</v>
+      </c>
+      <c r="H37" s="57">
         <v>1</v>
       </c>
       <c r="I37" s="8"/>
@@ -4526,15 +4893,17 @@
       <c r="FG37" s="38"/>
     </row>
     <row r="38" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
+      <c r="C38" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
       <c r="I38" s="8"/>
       <c r="DW38" s="38"/>
       <c r="DX38" s="38"/>
@@ -4575,15 +4944,13 @@
       <c r="FG38" s="38"/>
     </row>
     <row r="39" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="59"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
       <c r="I39" s="8"/>
       <c r="DW39" s="38"/>
       <c r="DX39" s="38"/>
@@ -4625,7 +4992,6 @@
     </row>
     <row r="40" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -4671,24 +5037,25 @@
       <c r="FG40" s="38"/>
     </row>
     <row r="41" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="7">
         <v>25</v>
       </c>
       <c r="E41" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F41" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G41" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H41" s="8">
-        <v>1</v>
+        <f>23/24</f>
+        <v>0.95833333333333337</v>
       </c>
       <c r="I41" s="8"/>
       <c r="DW41" s="38"/>
@@ -4730,25 +5097,25 @@
       <c r="FG41" s="38"/>
     </row>
     <row r="42" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="56">
         <v>27</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="56">
         <v>3</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="56">
         <v>27</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G42" s="56">
         <v>3</v>
       </c>
-      <c r="H42" s="59">
+      <c r="H42" s="57">
         <v>1</v>
       </c>
       <c r="I42" s="8"/>
@@ -4791,25 +5158,25 @@
       <c r="FG42" s="38"/>
     </row>
     <row r="43" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="58">
+      <c r="D43" s="56">
         <v>27</v>
       </c>
-      <c r="E43" s="58">
+      <c r="E43" s="56">
         <v>3</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F43" s="56">
         <v>27</v>
       </c>
-      <c r="G43" s="58">
+      <c r="G43" s="56">
         <v>3</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="57">
         <v>1</v>
       </c>
       <c r="I43" s="8"/>
@@ -4852,25 +5219,25 @@
       <c r="FG43" s="38"/>
     </row>
     <row r="44" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="58">
+      <c r="D44" s="56">
         <v>27</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="56">
         <v>3</v>
       </c>
-      <c r="F44" s="58">
+      <c r="F44" s="56">
         <v>27</v>
       </c>
-      <c r="G44" s="58">
+      <c r="G44" s="56">
         <v>3</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="57">
         <v>1</v>
       </c>
       <c r="I44" s="8"/>
@@ -4913,25 +5280,25 @@
       <c r="FG44" s="38"/>
     </row>
     <row r="45" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D45" s="56">
         <v>27</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="56">
         <v>3</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="56">
         <v>27</v>
       </c>
-      <c r="G45" s="58">
+      <c r="G45" s="56">
         <v>3</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="57">
         <v>1</v>
       </c>
       <c r="I45" s="8"/>
@@ -4974,25 +5341,25 @@
       <c r="FG45" s="38"/>
     </row>
     <row r="46" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="58">
+      <c r="D46" s="56">
         <v>27</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="56">
         <v>3</v>
       </c>
-      <c r="F46" s="58">
+      <c r="F46" s="56">
         <v>27</v>
       </c>
-      <c r="G46" s="58">
+      <c r="G46" s="56">
         <v>3</v>
       </c>
-      <c r="H46" s="59">
+      <c r="H46" s="57">
         <v>1</v>
       </c>
       <c r="I46" s="8"/>
@@ -5035,25 +5402,25 @@
       <c r="FG46" s="38"/>
     </row>
     <row r="47" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="79">
+      <c r="D47" s="56">
         <v>27</v>
       </c>
-      <c r="E47" s="79">
+      <c r="E47" s="56">
         <v>3</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="56">
         <v>27</v>
       </c>
-      <c r="G47" s="79">
+      <c r="G47" s="56">
         <v>3</v>
       </c>
-      <c r="H47" s="80">
+      <c r="H47" s="57">
         <v>1</v>
       </c>
       <c r="I47" s="8"/>
@@ -5096,101 +5463,271 @@
       <c r="FG47" s="38"/>
     </row>
     <row r="48" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="56">
+        <v>33</v>
+      </c>
+      <c r="E48" s="56">
+        <v>5</v>
+      </c>
+      <c r="F48" s="56">
+        <v>33</v>
+      </c>
+      <c r="G48" s="56">
+        <v>5</v>
+      </c>
+      <c r="H48" s="57">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="DW48" s="38"/>
+      <c r="DX48" s="38"/>
+      <c r="DY48" s="38"/>
+      <c r="DZ48" s="38"/>
+      <c r="EA48" s="38"/>
+      <c r="EB48" s="38"/>
+      <c r="EC48" s="38"/>
+      <c r="ED48" s="38"/>
+      <c r="EE48" s="38"/>
+      <c r="EF48" s="38"/>
+      <c r="EG48" s="38"/>
+      <c r="EH48" s="38"/>
+      <c r="EI48" s="38"/>
+      <c r="EJ48" s="38"/>
+      <c r="EK48" s="38"/>
+      <c r="EL48" s="38"/>
+      <c r="EM48" s="38"/>
+      <c r="EN48" s="38"/>
+      <c r="EO48" s="38"/>
+      <c r="EP48" s="38"/>
+      <c r="EQ48" s="38"/>
+      <c r="ER48" s="38"/>
+      <c r="ES48" s="38"/>
+      <c r="ET48" s="38"/>
+      <c r="EU48" s="38"/>
+      <c r="EV48" s="38"/>
+      <c r="EW48" s="38"/>
+      <c r="EX48" s="38"/>
+      <c r="EY48" s="38"/>
+      <c r="EZ48" s="38"/>
+      <c r="FA48" s="38"/>
+      <c r="FB48" s="38"/>
+      <c r="FC48" s="38"/>
+      <c r="FD48" s="38"/>
+      <c r="FE48" s="38"/>
+      <c r="FF48" s="38"/>
+      <c r="FG48" s="38"/>
+    </row>
+    <row r="49" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="82">
+      <c r="C49" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="56">
         <v>33</v>
       </c>
-      <c r="E48" s="82">
-        <v>6</v>
-      </c>
-      <c r="F48" s="82">
-        <v>0</v>
-      </c>
-      <c r="G48" s="82">
-        <v>0</v>
-      </c>
-      <c r="H48" s="83">
-        <v>0</v>
-      </c>
-      <c r="I48" s="84"/>
-    </row>
-    <row r="49" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="82">
-        <v>37</v>
-      </c>
-      <c r="E49" s="82">
-        <v>1</v>
-      </c>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="84"/>
+      <c r="E49" s="56">
+        <v>5</v>
+      </c>
+      <c r="F49" s="56">
+        <v>33</v>
+      </c>
+      <c r="G49" s="56">
+        <v>5</v>
+      </c>
+      <c r="H49" s="57">
+        <v>1</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="DW49" s="38"/>
+      <c r="DX49" s="38"/>
+      <c r="DY49" s="38"/>
+      <c r="DZ49" s="38"/>
+      <c r="EA49" s="38"/>
+      <c r="EB49" s="38"/>
+      <c r="EC49" s="38"/>
+      <c r="ED49" s="38"/>
+      <c r="EE49" s="38"/>
+      <c r="EF49" s="38"/>
+      <c r="EG49" s="38"/>
+      <c r="EH49" s="38"/>
+      <c r="EI49" s="38"/>
+      <c r="EJ49" s="38"/>
+      <c r="EK49" s="38"/>
+      <c r="EL49" s="38"/>
+      <c r="EM49" s="38"/>
+      <c r="EN49" s="38"/>
+      <c r="EO49" s="38"/>
+      <c r="EP49" s="38"/>
+      <c r="EQ49" s="38"/>
+      <c r="ER49" s="38"/>
+      <c r="ES49" s="38"/>
+      <c r="ET49" s="38"/>
+      <c r="EU49" s="38"/>
+      <c r="EV49" s="38"/>
+      <c r="EW49" s="38"/>
+      <c r="EX49" s="38"/>
+      <c r="EY49" s="38"/>
+      <c r="EZ49" s="38"/>
+      <c r="FA49" s="38"/>
+      <c r="FB49" s="38"/>
+      <c r="FC49" s="38"/>
+      <c r="FD49" s="38"/>
+      <c r="FE49" s="38"/>
+      <c r="FF49" s="38"/>
+      <c r="FG49" s="38"/>
     </row>
     <row r="50" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82">
-        <v>40</v>
-      </c>
-      <c r="E50" s="82">
-        <v>6</v>
-      </c>
-      <c r="F50" s="82">
-        <v>0</v>
-      </c>
-      <c r="G50" s="82">
-        <v>0</v>
-      </c>
-      <c r="H50" s="83">
-        <v>0</v>
-      </c>
-      <c r="I50" s="84"/>
+      <c r="B50" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="56">
+        <v>33</v>
+      </c>
+      <c r="E50" s="56">
+        <v>5</v>
+      </c>
+      <c r="F50" s="56">
+        <v>33</v>
+      </c>
+      <c r="G50" s="56">
+        <v>5</v>
+      </c>
+      <c r="H50" s="57">
+        <v>1</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="DW50" s="38"/>
+      <c r="DX50" s="38"/>
+      <c r="DY50" s="38"/>
+      <c r="DZ50" s="38"/>
+      <c r="EA50" s="38"/>
+      <c r="EB50" s="38"/>
+      <c r="EC50" s="38"/>
+      <c r="ED50" s="38"/>
+      <c r="EE50" s="38"/>
+      <c r="EF50" s="38"/>
+      <c r="EG50" s="38"/>
+      <c r="EH50" s="38"/>
+      <c r="EI50" s="38"/>
+      <c r="EJ50" s="38"/>
+      <c r="EK50" s="38"/>
+      <c r="EL50" s="38"/>
+      <c r="EM50" s="38"/>
+      <c r="EN50" s="38"/>
+      <c r="EO50" s="38"/>
+      <c r="EP50" s="38"/>
+      <c r="EQ50" s="38"/>
+      <c r="ER50" s="38"/>
+      <c r="ES50" s="38"/>
+      <c r="ET50" s="38"/>
+      <c r="EU50" s="38"/>
+      <c r="EV50" s="38"/>
+      <c r="EW50" s="38"/>
+      <c r="EX50" s="38"/>
+      <c r="EY50" s="38"/>
+      <c r="EZ50" s="38"/>
+      <c r="FA50" s="38"/>
+      <c r="FB50" s="38"/>
+      <c r="FC50" s="38"/>
+      <c r="FD50" s="38"/>
+      <c r="FE50" s="38"/>
+      <c r="FF50" s="38"/>
+      <c r="FG50" s="38"/>
     </row>
     <row r="51" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82">
-        <v>47</v>
-      </c>
-      <c r="E51" s="82">
-        <v>1</v>
-      </c>
-      <c r="F51" s="82">
-        <v>0</v>
-      </c>
-      <c r="G51" s="82">
-        <v>0</v>
-      </c>
-      <c r="H51" s="83">
-        <v>0</v>
-      </c>
-      <c r="I51" s="84"/>
-    </row>
-    <row r="52" spans="2:163" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="82">
-        <v>47</v>
-      </c>
-      <c r="E52" s="82">
-        <v>6</v>
-      </c>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="83"/>
+      <c r="B51" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="56">
+        <v>33</v>
+      </c>
+      <c r="E51" s="56">
+        <v>4</v>
+      </c>
+      <c r="F51" s="56">
+        <v>33</v>
+      </c>
+      <c r="G51" s="56">
+        <v>4</v>
+      </c>
+      <c r="H51" s="57">
+        <v>1</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="DW51" s="38"/>
+      <c r="DX51" s="38"/>
+      <c r="DY51" s="38"/>
+      <c r="DZ51" s="38"/>
+      <c r="EA51" s="38"/>
+      <c r="EB51" s="38"/>
+      <c r="EC51" s="38"/>
+      <c r="ED51" s="38"/>
+      <c r="EE51" s="38"/>
+      <c r="EF51" s="38"/>
+      <c r="EG51" s="38"/>
+      <c r="EH51" s="38"/>
+      <c r="EI51" s="38"/>
+      <c r="EJ51" s="38"/>
+      <c r="EK51" s="38"/>
+      <c r="EL51" s="38"/>
+      <c r="EM51" s="38"/>
+      <c r="EN51" s="38"/>
+      <c r="EO51" s="38"/>
+      <c r="EP51" s="38"/>
+      <c r="EQ51" s="38"/>
+      <c r="ER51" s="38"/>
+      <c r="ES51" s="38"/>
+      <c r="ET51" s="38"/>
+      <c r="EU51" s="38"/>
+      <c r="EV51" s="38"/>
+      <c r="EW51" s="38"/>
+      <c r="EX51" s="38"/>
+      <c r="EY51" s="38"/>
+      <c r="EZ51" s="38"/>
+      <c r="FA51" s="38"/>
+      <c r="FB51" s="38"/>
+      <c r="FC51" s="38"/>
+      <c r="FD51" s="38"/>
+      <c r="FE51" s="38"/>
+      <c r="FF51" s="38"/>
+      <c r="FG51" s="38"/>
+    </row>
+    <row r="52" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="56">
+        <v>33</v>
+      </c>
+      <c r="E52" s="56">
+        <v>4</v>
+      </c>
+      <c r="F52" s="56">
+        <v>33</v>
+      </c>
+      <c r="G52" s="56">
+        <v>4</v>
+      </c>
+      <c r="H52" s="57">
+        <v>1</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="DW52" s="38"/>
       <c r="DX52" s="38"/>
@@ -5231,6 +5768,27 @@
       <c r="FG52" s="38"/>
     </row>
     <row r="53" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="56">
+        <v>33</v>
+      </c>
+      <c r="E53" s="56">
+        <v>6</v>
+      </c>
+      <c r="F53" s="56">
+        <v>33</v>
+      </c>
+      <c r="G53" s="56">
+        <v>7</v>
+      </c>
+      <c r="H53" s="57">
+        <v>1</v>
+      </c>
       <c r="I53" s="8"/>
       <c r="DW53" s="38"/>
       <c r="DX53" s="38"/>
@@ -5271,13 +5829,27 @@
       <c r="FG53" s="38"/>
     </row>
     <row r="54" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
+      <c r="B54" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="56">
+        <v>33</v>
+      </c>
+      <c r="E54" s="56">
+        <v>4</v>
+      </c>
+      <c r="F54" s="56">
+        <v>33</v>
+      </c>
+      <c r="G54" s="56">
+        <v>4</v>
+      </c>
+      <c r="H54" s="57">
+        <v>1</v>
+      </c>
       <c r="I54" s="8"/>
       <c r="DW54" s="38"/>
       <c r="DX54" s="38"/>
@@ -5318,13 +5890,27 @@
       <c r="FG54" s="38"/>
     </row>
     <row r="55" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
+      <c r="B55" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="56">
+        <v>33</v>
+      </c>
+      <c r="E55" s="56">
+        <v>4</v>
+      </c>
+      <c r="F55" s="56">
+        <v>34</v>
+      </c>
+      <c r="G55" s="56">
+        <v>4</v>
+      </c>
+      <c r="H55" s="57">
+        <v>1</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="DW55" s="38"/>
       <c r="DX55" s="38"/>
@@ -5365,19 +5951,27 @@
       <c r="FG55" s="38"/>
     </row>
     <row r="56" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7">
+      <c r="B56" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="56">
         <v>34</v>
       </c>
-      <c r="E56" s="7">
-        <v>17</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
+      <c r="E56" s="56">
+        <v>4</v>
+      </c>
+      <c r="F56" s="56">
+        <v>34</v>
+      </c>
+      <c r="G56" s="56">
+        <v>5</v>
+      </c>
+      <c r="H56" s="57">
+        <v>1</v>
+      </c>
       <c r="I56" s="8"/>
       <c r="DW56" s="38"/>
       <c r="DX56" s="38"/>
@@ -5418,22 +6012,26 @@
       <c r="FG56" s="38"/>
     </row>
     <row r="57" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="58">
+      <c r="B57" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="56">
+        <v>33</v>
+      </c>
+      <c r="E57" s="56">
+        <v>5</v>
+      </c>
+      <c r="F57" s="56">
         <v>34</v>
       </c>
-      <c r="E57" s="82">
-        <v>17</v>
-      </c>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="59">
-        <v>0</v>
+      <c r="G57" s="56">
+        <v>5</v>
+      </c>
+      <c r="H57" s="57">
+        <v>1</v>
       </c>
       <c r="I57" s="8"/>
       <c r="DW57" s="38"/>
@@ -5475,22 +6073,26 @@
       <c r="FG57" s="38"/>
     </row>
     <row r="58" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="54" t="s">
+      <c r="B58" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="56">
         <v>33</v>
       </c>
-      <c r="D58" s="58">
-        <v>34</v>
-      </c>
-      <c r="E58" s="82">
-        <v>17</v>
-      </c>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="59">
-        <v>0</v>
+      <c r="E58" s="56">
+        <v>4</v>
+      </c>
+      <c r="F58" s="56">
+        <v>33</v>
+      </c>
+      <c r="G58" s="56">
+        <v>6</v>
+      </c>
+      <c r="H58" s="57">
+        <v>1</v>
       </c>
       <c r="I58" s="8"/>
       <c r="DW58" s="38"/>
@@ -5532,22 +6134,26 @@
       <c r="FG58" s="38"/>
     </row>
     <row r="59" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="58">
-        <v>34</v>
-      </c>
-      <c r="E59" s="82">
-        <v>17</v>
-      </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="59">
-        <v>0</v>
+      <c r="B59" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="56">
+        <v>39</v>
+      </c>
+      <c r="E59" s="56">
+        <v>2</v>
+      </c>
+      <c r="F59" s="56">
+        <v>39</v>
+      </c>
+      <c r="G59" s="56">
+        <v>2</v>
+      </c>
+      <c r="H59" s="57">
+        <v>1</v>
       </c>
       <c r="I59" s="8"/>
       <c r="DW59" s="38"/>
@@ -5589,22 +6195,26 @@
       <c r="FG59" s="38"/>
     </row>
     <row r="60" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="58">
+      <c r="B60" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="82">
-        <v>17</v>
-      </c>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="59">
-        <v>0</v>
+      <c r="D60" s="56">
+        <v>39</v>
+      </c>
+      <c r="E60" s="56">
+        <v>2</v>
+      </c>
+      <c r="F60" s="56">
+        <v>39</v>
+      </c>
+      <c r="G60" s="56">
+        <v>2</v>
+      </c>
+      <c r="H60" s="57">
+        <v>1</v>
       </c>
       <c r="I60" s="8"/>
       <c r="DW60" s="38"/>
@@ -5646,22 +6256,26 @@
       <c r="FG60" s="38"/>
     </row>
     <row r="61" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="54" t="s">
+      <c r="B61" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="58">
-        <v>34</v>
-      </c>
-      <c r="E61" s="82">
-        <v>17</v>
-      </c>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="59">
-        <v>0</v>
+      <c r="D61" s="56">
+        <v>39</v>
+      </c>
+      <c r="E61" s="56">
+        <v>2</v>
+      </c>
+      <c r="F61" s="56">
+        <v>39</v>
+      </c>
+      <c r="G61" s="56">
+        <v>2</v>
+      </c>
+      <c r="H61" s="57">
+        <v>1</v>
       </c>
       <c r="I61" s="8"/>
       <c r="DW61" s="38"/>
@@ -5703,22 +6317,24 @@
       <c r="FG61" s="38"/>
     </row>
     <row r="62" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="58">
-        <v>34</v>
-      </c>
-      <c r="E62" s="82">
-        <v>17</v>
-      </c>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="59">
-        <v>0</v>
+      <c r="B62" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="64"/>
+      <c r="D62" s="56">
+        <v>41</v>
+      </c>
+      <c r="E62" s="56">
+        <v>1</v>
+      </c>
+      <c r="F62" s="56">
+        <v>41</v>
+      </c>
+      <c r="G62" s="56">
+        <v>1</v>
+      </c>
+      <c r="H62" s="57">
+        <v>1</v>
       </c>
       <c r="I62" s="8"/>
       <c r="DW62" s="38"/>
@@ -5760,16 +6376,26 @@
       <c r="FG62" s="38"/>
     </row>
     <row r="63" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="58">
-        <v>0</v>
-      </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="59">
-        <v>0</v>
+      <c r="B63" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="56">
+        <v>42</v>
+      </c>
+      <c r="E63" s="56">
+        <v>2</v>
+      </c>
+      <c r="F63" s="56">
+        <v>42</v>
+      </c>
+      <c r="G63" s="56">
+        <v>2</v>
+      </c>
+      <c r="H63" s="57">
+        <v>1</v>
       </c>
       <c r="I63" s="8"/>
       <c r="DW63" s="38"/>
@@ -5811,16 +6437,26 @@
       <c r="FG63" s="38"/>
     </row>
     <row r="64" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="58">
-        <v>0</v>
-      </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="59">
-        <v>0</v>
+      <c r="B64" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="56">
+        <v>44</v>
+      </c>
+      <c r="E64" s="56">
+        <v>3</v>
+      </c>
+      <c r="F64" s="56">
+        <v>44</v>
+      </c>
+      <c r="G64" s="56">
+        <v>3</v>
+      </c>
+      <c r="H64" s="57">
+        <v>1</v>
       </c>
       <c r="I64" s="8"/>
       <c r="DW64" s="38"/>
@@ -5861,14 +6497,28 @@
       <c r="FF64" s="38"/>
       <c r="FG64" s="38"/>
     </row>
-    <row r="65" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="61"/>
+    <row r="65" spans="2:163" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="90">
+        <v>47</v>
+      </c>
+      <c r="E65" s="90">
+        <v>6</v>
+      </c>
+      <c r="F65" s="90">
+        <v>47</v>
+      </c>
+      <c r="G65" s="90">
+        <v>11</v>
+      </c>
+      <c r="H65" s="91">
+        <v>1</v>
+      </c>
       <c r="I65" s="8"/>
       <c r="DW65" s="38"/>
       <c r="DX65" s="38"/>
@@ -5909,19 +6559,23 @@
       <c r="FG65" s="38"/>
     </row>
     <row r="66" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7">
-        <v>52</v>
-      </c>
-      <c r="E66" s="7">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
+      <c r="B66" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="93">
+        <v>58</v>
+      </c>
+      <c r="E66" s="93">
+        <v>9</v>
+      </c>
+      <c r="F66" s="93">
+        <v>58</v>
+      </c>
+      <c r="G66" s="93"/>
+      <c r="H66" s="94"/>
       <c r="I66" s="8"/>
       <c r="DW66" s="38"/>
       <c r="DX66" s="38"/>
@@ -5962,19 +6616,13 @@
       <c r="FG66" s="38"/>
     </row>
     <row r="67" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="58">
-        <v>52</v>
-      </c>
-      <c r="E67" s="58">
-        <v>1</v>
-      </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="59"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
       <c r="I67" s="8"/>
       <c r="DW67" s="38"/>
       <c r="DX67" s="38"/>
@@ -6015,7 +6663,8 @@
       <c r="FG67" s="38"/>
     </row>
     <row r="68" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="6"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -6062,19 +6711,22 @@
     </row>
     <row r="69" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="D69" s="63">
+        <v>34</v>
       </c>
       <c r="E69" s="7">
-        <v>36</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F69" s="63">
+        <v>41</v>
+      </c>
+      <c r="G69" s="7">
+        <v>10</v>
+      </c>
       <c r="H69" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="8"/>
       <c r="DW69" s="38"/>
@@ -6116,13 +6768,27 @@
       <c r="FG69" s="38"/>
     </row>
     <row r="70" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="59"/>
+      <c r="B70" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="62">
+        <v>34</v>
+      </c>
+      <c r="E70" s="61">
+        <v>17</v>
+      </c>
+      <c r="F70" s="62">
+        <v>41</v>
+      </c>
+      <c r="G70" s="60">
+        <v>10</v>
+      </c>
+      <c r="H70" s="57">
+        <v>1</v>
+      </c>
       <c r="I70" s="8"/>
       <c r="DW70" s="38"/>
       <c r="DX70" s="38"/>
@@ -6163,20 +6829,26 @@
       <c r="FG70" s="38"/>
     </row>
     <row r="71" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7">
-        <v>55</v>
-      </c>
-      <c r="E71" s="7">
-        <v>45</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8">
-        <v>0</v>
+      <c r="B71" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="56">
+        <v>34</v>
+      </c>
+      <c r="E71" s="61">
+        <v>17</v>
+      </c>
+      <c r="F71" s="56">
+        <v>41</v>
+      </c>
+      <c r="G71" s="60">
+        <v>10</v>
+      </c>
+      <c r="H71" s="57">
+        <v>1</v>
       </c>
       <c r="I71" s="8"/>
       <c r="DW71" s="38"/>
@@ -6218,13 +6890,27 @@
       <c r="FG71" s="38"/>
     </row>
     <row r="72" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="59"/>
+      <c r="B72" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="56">
+        <v>34</v>
+      </c>
+      <c r="E72" s="61">
+        <v>17</v>
+      </c>
+      <c r="F72" s="56">
+        <v>41</v>
+      </c>
+      <c r="G72" s="60">
+        <v>10</v>
+      </c>
+      <c r="H72" s="57">
+        <v>1</v>
+      </c>
       <c r="I72" s="8"/>
       <c r="DW72" s="38"/>
       <c r="DX72" s="38"/>
@@ -6265,20 +6951,26 @@
       <c r="FG72" s="38"/>
     </row>
     <row r="73" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7">
-        <v>77</v>
-      </c>
-      <c r="E73" s="7">
-        <v>14</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8">
-        <v>0</v>
+      <c r="B73" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="56">
+        <v>34</v>
+      </c>
+      <c r="E73" s="61">
+        <v>17</v>
+      </c>
+      <c r="F73" s="56">
+        <v>41</v>
+      </c>
+      <c r="G73" s="60">
+        <v>10</v>
+      </c>
+      <c r="H73" s="57">
+        <v>1</v>
       </c>
       <c r="I73" s="8"/>
       <c r="DW73" s="38"/>
@@ -6320,13 +7012,27 @@
       <c r="FG73" s="38"/>
     </row>
     <row r="74" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="59"/>
+      <c r="B74" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="56">
+        <v>34</v>
+      </c>
+      <c r="E74" s="61">
+        <v>17</v>
+      </c>
+      <c r="F74" s="56">
+        <v>41</v>
+      </c>
+      <c r="G74" s="60">
+        <v>10</v>
+      </c>
+      <c r="H74" s="57">
+        <v>1</v>
+      </c>
       <c r="I74" s="8"/>
       <c r="DW74" s="38"/>
       <c r="DX74" s="38"/>
@@ -6367,20 +7073,26 @@
       <c r="FG74" s="38"/>
     </row>
     <row r="75" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7">
-        <v>92</v>
-      </c>
-      <c r="E75" s="7">
-        <v>13</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8">
-        <v>0</v>
+      <c r="B75" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="56">
+        <v>34</v>
+      </c>
+      <c r="E75" s="61">
+        <v>17</v>
+      </c>
+      <c r="F75" s="56">
+        <v>41</v>
+      </c>
+      <c r="G75" s="60">
+        <v>10</v>
+      </c>
+      <c r="H75" s="57">
+        <v>1</v>
       </c>
       <c r="I75" s="8"/>
       <c r="DW75" s="38"/>
@@ -6422,13 +7134,17 @@
       <c r="FG75" s="38"/>
     </row>
     <row r="76" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="59"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="56">
+        <v>0</v>
+      </c>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="57">
+        <v>0</v>
+      </c>
       <c r="I76" s="8"/>
       <c r="DW76" s="38"/>
       <c r="DX76" s="38"/>
@@ -6469,13 +7185,17 @@
       <c r="FG76" s="38"/>
     </row>
     <row r="77" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="56">
+        <v>0</v>
+      </c>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="57">
+        <v>0</v>
+      </c>
       <c r="I77" s="8"/>
       <c r="DW77" s="38"/>
       <c r="DX77" s="38"/>
@@ -6516,13 +7236,13 @@
       <c r="FG77" s="38"/>
     </row>
     <row r="78" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="59"/>
       <c r="I78" s="8"/>
       <c r="DW78" s="38"/>
       <c r="DX78" s="38"/>
@@ -6563,13 +7283,24 @@
       <c r="FG78" s="38"/>
     </row>
     <row r="79" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
+      <c r="B79" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="7">
+        <v>52</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7">
+        <v>52</v>
+      </c>
+      <c r="G79" s="7">
+        <v>1</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1</v>
+      </c>
       <c r="I79" s="8"/>
       <c r="DW79" s="38"/>
       <c r="DX79" s="38"/>
@@ -6610,13 +7341,27 @@
       <c r="FG79" s="38"/>
     </row>
     <row r="80" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
+      <c r="B80" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="56">
+        <v>52</v>
+      </c>
+      <c r="E80" s="56">
+        <v>1</v>
+      </c>
+      <c r="F80" s="56">
+        <v>52</v>
+      </c>
+      <c r="G80" s="56">
+        <v>1</v>
+      </c>
+      <c r="H80" s="57">
+        <v>1</v>
+      </c>
       <c r="I80" s="8"/>
       <c r="DW80" s="38"/>
       <c r="DX80" s="38"/>
@@ -6657,8 +7402,6 @@
       <c r="FG80" s="38"/>
     </row>
     <row r="81" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -6704,13 +7447,20 @@
       <c r="FG81" s="38"/>
     </row>
     <row r="82" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="B82" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="7">
+        <v>70</v>
+      </c>
+      <c r="E82" s="7">
+        <v>36</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="8">
+        <v>0</v>
+      </c>
       <c r="I82" s="8"/>
       <c r="DW82" s="38"/>
       <c r="DX82" s="38"/>
@@ -6751,13 +7501,21 @@
       <c r="FG82" s="38"/>
     </row>
     <row r="83" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
+      <c r="B83" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="56">
+        <v>70</v>
+      </c>
+      <c r="E83" s="56">
+        <v>10</v>
+      </c>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="57"/>
       <c r="I83" s="8"/>
       <c r="DW83" s="38"/>
       <c r="DX83" s="38"/>
@@ -6798,13 +7556,21 @@
       <c r="FG83" s="38"/>
     </row>
     <row r="84" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
+      <c r="B84" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="62">
+        <v>81</v>
+      </c>
+      <c r="E84" s="62">
+        <v>7</v>
+      </c>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="97"/>
       <c r="I84" s="8"/>
       <c r="DW84" s="38"/>
       <c r="DX84" s="38"/>
@@ -6845,13 +7611,21 @@
       <c r="FG84" s="38"/>
     </row>
     <row r="85" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
+      <c r="B85" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="62">
+        <v>89</v>
+      </c>
+      <c r="E85" s="62">
+        <v>10</v>
+      </c>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="97"/>
       <c r="I85" s="8"/>
       <c r="DW85" s="38"/>
       <c r="DX85" s="38"/>
@@ -6892,13 +7666,21 @@
       <c r="FG85" s="38"/>
     </row>
     <row r="86" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
+      <c r="B86" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="62">
+        <v>99</v>
+      </c>
+      <c r="E86" s="62">
+        <v>2</v>
+      </c>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="97"/>
       <c r="I86" s="8"/>
       <c r="DW86" s="38"/>
       <c r="DX86" s="38"/>
@@ -6939,13 +7721,21 @@
       <c r="FG86" s="38"/>
     </row>
     <row r="87" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
+      <c r="B87" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="56">
+        <v>102</v>
+      </c>
+      <c r="E87" s="56">
+        <v>2</v>
+      </c>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="57"/>
       <c r="I87" s="8"/>
       <c r="DW87" s="38"/>
       <c r="DX87" s="38"/>
@@ -6986,13 +7776,21 @@
       <c r="FG87" s="38"/>
     </row>
     <row r="88" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
+      <c r="B88" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="56">
+        <v>104</v>
+      </c>
+      <c r="E88" s="56">
+        <v>2</v>
+      </c>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="57"/>
       <c r="I88" s="8"/>
       <c r="DW88" s="38"/>
       <c r="DX88" s="38"/>
@@ -7033,13 +7831,21 @@
       <c r="FG88" s="38"/>
     </row>
     <row r="89" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
+      <c r="B89" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="56">
+        <v>106</v>
+      </c>
+      <c r="E89" s="56">
+        <v>4</v>
+      </c>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="57"/>
       <c r="I89" s="8"/>
       <c r="DW89" s="38"/>
       <c r="DX89" s="38"/>
@@ -7080,13 +7886,13 @@
       <c r="FG89" s="38"/>
     </row>
     <row r="90" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="8"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="57"/>
       <c r="I90" s="8"/>
       <c r="DW90" s="38"/>
       <c r="DX90" s="38"/>
@@ -7127,13 +7933,13 @@
       <c r="FG90" s="38"/>
     </row>
     <row r="91" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="57"/>
       <c r="I91" s="8"/>
       <c r="DW91" s="38"/>
       <c r="DX91" s="38"/>
@@ -7173,6 +7979,1640 @@
       <c r="FF91" s="38"/>
       <c r="FG91" s="38"/>
     </row>
+    <row r="92" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="7">
+        <v>70</v>
+      </c>
+      <c r="E92" s="7">
+        <v>43</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="8">
+        <v>0</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="CZ92">
+        <v>8</v>
+      </c>
+      <c r="DW92" s="38"/>
+      <c r="DX92" s="38"/>
+      <c r="DY92" s="38"/>
+      <c r="DZ92" s="38"/>
+      <c r="EA92" s="38"/>
+      <c r="EB92" s="38"/>
+      <c r="EC92" s="38"/>
+      <c r="ED92" s="38"/>
+      <c r="EE92" s="38"/>
+      <c r="EF92" s="38"/>
+      <c r="EG92" s="38"/>
+      <c r="EH92" s="38"/>
+      <c r="EI92" s="38"/>
+      <c r="EJ92" s="38"/>
+      <c r="EK92" s="38"/>
+      <c r="EL92" s="38"/>
+      <c r="EM92" s="38"/>
+      <c r="EN92" s="38"/>
+      <c r="EO92" s="38"/>
+      <c r="EP92" s="38"/>
+      <c r="EQ92" s="38"/>
+      <c r="ER92" s="38"/>
+      <c r="ES92" s="38"/>
+      <c r="ET92" s="38"/>
+      <c r="EU92" s="38"/>
+      <c r="EV92" s="38"/>
+      <c r="EW92" s="38"/>
+      <c r="EX92" s="38"/>
+      <c r="EY92" s="38"/>
+      <c r="EZ92" s="38"/>
+      <c r="FA92" s="38"/>
+      <c r="FB92" s="38"/>
+      <c r="FC92" s="38"/>
+      <c r="FD92" s="38"/>
+      <c r="FE92" s="38"/>
+      <c r="FF92" s="38"/>
+      <c r="FG92" s="38"/>
+    </row>
+    <row r="93" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="56">
+        <v>70</v>
+      </c>
+      <c r="E93" s="56">
+        <v>2</v>
+      </c>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="8"/>
+      <c r="DW93" s="38"/>
+      <c r="DX93" s="38"/>
+      <c r="DY93" s="38"/>
+      <c r="DZ93" s="38"/>
+      <c r="EA93" s="38"/>
+      <c r="EB93" s="38"/>
+      <c r="EC93" s="38"/>
+      <c r="ED93" s="38"/>
+      <c r="EE93" s="38"/>
+      <c r="EF93" s="38"/>
+      <c r="EG93" s="38"/>
+      <c r="EH93" s="38"/>
+      <c r="EI93" s="38"/>
+      <c r="EJ93" s="38"/>
+      <c r="EK93" s="38"/>
+      <c r="EL93" s="38"/>
+      <c r="EM93" s="38"/>
+      <c r="EN93" s="38"/>
+      <c r="EO93" s="38"/>
+      <c r="EP93" s="38"/>
+      <c r="EQ93" s="38"/>
+      <c r="ER93" s="38"/>
+      <c r="ES93" s="38"/>
+      <c r="ET93" s="38"/>
+      <c r="EU93" s="38"/>
+      <c r="EV93" s="38"/>
+      <c r="EW93" s="38"/>
+      <c r="EX93" s="38"/>
+      <c r="EY93" s="38"/>
+      <c r="EZ93" s="38"/>
+      <c r="FA93" s="38"/>
+      <c r="FB93" s="38"/>
+      <c r="FC93" s="38"/>
+      <c r="FD93" s="38"/>
+      <c r="FE93" s="38"/>
+      <c r="FF93" s="38"/>
+      <c r="FG93" s="38"/>
+    </row>
+    <row r="94" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="56">
+        <v>72</v>
+      </c>
+      <c r="E94" s="56">
+        <v>7</v>
+      </c>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="8"/>
+      <c r="DW94" s="38"/>
+      <c r="DX94" s="38"/>
+      <c r="DY94" s="38"/>
+      <c r="DZ94" s="38"/>
+      <c r="EA94" s="38"/>
+      <c r="EB94" s="38"/>
+      <c r="EC94" s="38"/>
+      <c r="ED94" s="38"/>
+      <c r="EE94" s="38"/>
+      <c r="EF94" s="38"/>
+      <c r="EG94" s="38"/>
+      <c r="EH94" s="38"/>
+      <c r="EI94" s="38"/>
+      <c r="EJ94" s="38"/>
+      <c r="EK94" s="38"/>
+      <c r="EL94" s="38"/>
+      <c r="EM94" s="38"/>
+      <c r="EN94" s="38"/>
+      <c r="EO94" s="38"/>
+      <c r="EP94" s="38"/>
+      <c r="EQ94" s="38"/>
+      <c r="ER94" s="38"/>
+      <c r="ES94" s="38"/>
+      <c r="ET94" s="38"/>
+      <c r="EU94" s="38"/>
+      <c r="EV94" s="38"/>
+      <c r="EW94" s="38"/>
+      <c r="EX94" s="38"/>
+      <c r="EY94" s="38"/>
+      <c r="EZ94" s="38"/>
+      <c r="FA94" s="38"/>
+      <c r="FB94" s="38"/>
+      <c r="FC94" s="38"/>
+      <c r="FD94" s="38"/>
+      <c r="FE94" s="38"/>
+      <c r="FF94" s="38"/>
+      <c r="FG94" s="38"/>
+    </row>
+    <row r="95" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" s="56">
+        <v>82</v>
+      </c>
+      <c r="E95" s="56">
+        <v>7</v>
+      </c>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="8"/>
+      <c r="DW95" s="38"/>
+      <c r="DX95" s="38"/>
+      <c r="DY95" s="38"/>
+      <c r="DZ95" s="38"/>
+      <c r="EA95" s="38"/>
+      <c r="EB95" s="38"/>
+      <c r="EC95" s="38"/>
+      <c r="ED95" s="38"/>
+      <c r="EE95" s="38"/>
+      <c r="EF95" s="38"/>
+      <c r="EG95" s="38"/>
+      <c r="EH95" s="38"/>
+      <c r="EI95" s="38"/>
+      <c r="EJ95" s="38"/>
+      <c r="EK95" s="38"/>
+      <c r="EL95" s="38"/>
+      <c r="EM95" s="38"/>
+      <c r="EN95" s="38"/>
+      <c r="EO95" s="38"/>
+      <c r="EP95" s="38"/>
+      <c r="EQ95" s="38"/>
+      <c r="ER95" s="38"/>
+      <c r="ES95" s="38"/>
+      <c r="ET95" s="38"/>
+      <c r="EU95" s="38"/>
+      <c r="EV95" s="38"/>
+      <c r="EW95" s="38"/>
+      <c r="EX95" s="38"/>
+      <c r="EY95" s="38"/>
+      <c r="EZ95" s="38"/>
+      <c r="FA95" s="38"/>
+      <c r="FB95" s="38"/>
+      <c r="FC95" s="38"/>
+      <c r="FD95" s="38"/>
+      <c r="FE95" s="38"/>
+      <c r="FF95" s="38"/>
+      <c r="FG95" s="38"/>
+    </row>
+    <row r="96" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="56">
+        <v>91</v>
+      </c>
+      <c r="E96" s="56">
+        <v>7</v>
+      </c>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="8"/>
+      <c r="DW96" s="38"/>
+      <c r="DX96" s="38"/>
+      <c r="DY96" s="38"/>
+      <c r="DZ96" s="38"/>
+      <c r="EA96" s="38"/>
+      <c r="EB96" s="38"/>
+      <c r="EC96" s="38"/>
+      <c r="ED96" s="38"/>
+      <c r="EE96" s="38"/>
+      <c r="EF96" s="38"/>
+      <c r="EG96" s="38"/>
+      <c r="EH96" s="38"/>
+      <c r="EI96" s="38"/>
+      <c r="EJ96" s="38"/>
+      <c r="EK96" s="38"/>
+      <c r="EL96" s="38"/>
+      <c r="EM96" s="38"/>
+      <c r="EN96" s="38"/>
+      <c r="EO96" s="38"/>
+      <c r="EP96" s="38"/>
+      <c r="EQ96" s="38"/>
+      <c r="ER96" s="38"/>
+      <c r="ES96" s="38"/>
+      <c r="ET96" s="38"/>
+      <c r="EU96" s="38"/>
+      <c r="EV96" s="38"/>
+      <c r="EW96" s="38"/>
+      <c r="EX96" s="38"/>
+      <c r="EY96" s="38"/>
+      <c r="EZ96" s="38"/>
+      <c r="FA96" s="38"/>
+      <c r="FB96" s="38"/>
+      <c r="FC96" s="38"/>
+      <c r="FD96" s="38"/>
+      <c r="FE96" s="38"/>
+      <c r="FF96" s="38"/>
+      <c r="FG96" s="38"/>
+    </row>
+    <row r="97" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="90">
+        <v>99</v>
+      </c>
+      <c r="E97" s="90">
+        <v>7</v>
+      </c>
+      <c r="F97" s="90"/>
+      <c r="G97" s="90"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="8"/>
+      <c r="DW97" s="38"/>
+      <c r="DX97" s="38"/>
+      <c r="DY97" s="38"/>
+      <c r="DZ97" s="38"/>
+      <c r="EA97" s="38"/>
+      <c r="EB97" s="38"/>
+      <c r="EC97" s="38"/>
+      <c r="ED97" s="38"/>
+      <c r="EE97" s="38"/>
+      <c r="EF97" s="38"/>
+      <c r="EG97" s="38"/>
+      <c r="EH97" s="38"/>
+      <c r="EI97" s="38"/>
+      <c r="EJ97" s="38"/>
+      <c r="EK97" s="38"/>
+      <c r="EL97" s="38"/>
+      <c r="EM97" s="38"/>
+      <c r="EN97" s="38"/>
+      <c r="EO97" s="38"/>
+      <c r="EP97" s="38"/>
+      <c r="EQ97" s="38"/>
+      <c r="ER97" s="38"/>
+      <c r="ES97" s="38"/>
+      <c r="ET97" s="38"/>
+      <c r="EU97" s="38"/>
+      <c r="EV97" s="38"/>
+      <c r="EW97" s="38"/>
+      <c r="EX97" s="38"/>
+      <c r="EY97" s="38"/>
+      <c r="EZ97" s="38"/>
+      <c r="FA97" s="38"/>
+      <c r="FB97" s="38"/>
+      <c r="FC97" s="38"/>
+      <c r="FD97" s="38"/>
+      <c r="FE97" s="38"/>
+      <c r="FF97" s="38"/>
+      <c r="FG97" s="38"/>
+    </row>
+    <row r="98" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" s="56">
+        <v>107</v>
+      </c>
+      <c r="E98" s="56">
+        <v>6</v>
+      </c>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="8"/>
+      <c r="DW98" s="38"/>
+      <c r="DX98" s="38"/>
+      <c r="DY98" s="38"/>
+      <c r="DZ98" s="38"/>
+      <c r="EA98" s="38"/>
+      <c r="EB98" s="38"/>
+      <c r="EC98" s="38"/>
+      <c r="ED98" s="38"/>
+      <c r="EE98" s="38"/>
+      <c r="EF98" s="38"/>
+      <c r="EG98" s="38"/>
+      <c r="EH98" s="38"/>
+      <c r="EI98" s="38"/>
+      <c r="EJ98" s="38"/>
+      <c r="EK98" s="38"/>
+      <c r="EL98" s="38"/>
+      <c r="EM98" s="38"/>
+      <c r="EN98" s="38"/>
+      <c r="EO98" s="38"/>
+      <c r="EP98" s="38"/>
+      <c r="EQ98" s="38"/>
+      <c r="ER98" s="38"/>
+      <c r="ES98" s="38"/>
+      <c r="ET98" s="38"/>
+      <c r="EU98" s="38"/>
+      <c r="EV98" s="38"/>
+      <c r="EW98" s="38"/>
+      <c r="EX98" s="38"/>
+      <c r="EY98" s="38"/>
+      <c r="EZ98" s="38"/>
+      <c r="FA98" s="38"/>
+      <c r="FB98" s="38"/>
+      <c r="FC98" s="38"/>
+      <c r="FD98" s="38"/>
+      <c r="FE98" s="38"/>
+      <c r="FF98" s="38"/>
+      <c r="FG98" s="38"/>
+    </row>
+    <row r="99" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="7">
+        <v>77</v>
+      </c>
+      <c r="E99" s="7">
+        <v>14</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="8">
+        <v>0</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="DW99" s="38"/>
+      <c r="DX99" s="38"/>
+      <c r="DY99" s="38"/>
+      <c r="DZ99" s="38"/>
+      <c r="EA99" s="38"/>
+      <c r="EB99" s="38"/>
+      <c r="EC99" s="38"/>
+      <c r="ED99" s="38"/>
+      <c r="EE99" s="38"/>
+      <c r="EF99" s="38"/>
+      <c r="EG99" s="38"/>
+      <c r="EH99" s="38"/>
+      <c r="EI99" s="38"/>
+      <c r="EJ99" s="38"/>
+      <c r="EK99" s="38"/>
+      <c r="EL99" s="38"/>
+      <c r="EM99" s="38"/>
+      <c r="EN99" s="38"/>
+      <c r="EO99" s="38"/>
+      <c r="EP99" s="38"/>
+      <c r="EQ99" s="38"/>
+      <c r="ER99" s="38"/>
+      <c r="ES99" s="38"/>
+      <c r="ET99" s="38"/>
+      <c r="EU99" s="38"/>
+      <c r="EV99" s="38"/>
+      <c r="EW99" s="38"/>
+      <c r="EX99" s="38"/>
+      <c r="EY99" s="38"/>
+      <c r="EZ99" s="38"/>
+      <c r="FA99" s="38"/>
+      <c r="FB99" s="38"/>
+      <c r="FC99" s="38"/>
+      <c r="FD99" s="38"/>
+      <c r="FE99" s="38"/>
+      <c r="FF99" s="38"/>
+      <c r="FG99" s="38"/>
+    </row>
+    <row r="100" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="90">
+        <v>77</v>
+      </c>
+      <c r="E100" s="90">
+        <v>1</v>
+      </c>
+      <c r="F100" s="90"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="8"/>
+      <c r="DW100" s="38"/>
+      <c r="DX100" s="38"/>
+      <c r="DY100" s="38"/>
+      <c r="DZ100" s="38"/>
+      <c r="EA100" s="38"/>
+      <c r="EB100" s="38"/>
+      <c r="EC100" s="38"/>
+      <c r="ED100" s="38"/>
+      <c r="EE100" s="38"/>
+      <c r="EF100" s="38"/>
+      <c r="EG100" s="38"/>
+      <c r="EH100" s="38"/>
+      <c r="EI100" s="38"/>
+      <c r="EJ100" s="38"/>
+      <c r="EK100" s="38"/>
+      <c r="EL100" s="38"/>
+      <c r="EM100" s="38"/>
+      <c r="EN100" s="38"/>
+      <c r="EO100" s="38"/>
+      <c r="EP100" s="38"/>
+      <c r="EQ100" s="38"/>
+      <c r="ER100" s="38"/>
+      <c r="ES100" s="38"/>
+      <c r="ET100" s="38"/>
+      <c r="EU100" s="38"/>
+      <c r="EV100" s="38"/>
+      <c r="EW100" s="38"/>
+      <c r="EX100" s="38"/>
+      <c r="EY100" s="38"/>
+      <c r="EZ100" s="38"/>
+      <c r="FA100" s="38"/>
+      <c r="FB100" s="38"/>
+      <c r="FC100" s="38"/>
+      <c r="FD100" s="38"/>
+      <c r="FE100" s="38"/>
+      <c r="FF100" s="38"/>
+      <c r="FG100" s="38"/>
+    </row>
+    <row r="101" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="56">
+        <v>78</v>
+      </c>
+      <c r="E101" s="56">
+        <v>2</v>
+      </c>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="8"/>
+      <c r="DW101" s="38"/>
+      <c r="DX101" s="38"/>
+      <c r="DY101" s="38"/>
+      <c r="DZ101" s="38"/>
+      <c r="EA101" s="38"/>
+      <c r="EB101" s="38"/>
+      <c r="EC101" s="38"/>
+      <c r="ED101" s="38"/>
+      <c r="EE101" s="38"/>
+      <c r="EF101" s="38"/>
+      <c r="EG101" s="38"/>
+      <c r="EH101" s="38"/>
+      <c r="EI101" s="38"/>
+      <c r="EJ101" s="38"/>
+      <c r="EK101" s="38"/>
+      <c r="EL101" s="38"/>
+      <c r="EM101" s="38"/>
+      <c r="EN101" s="38"/>
+      <c r="EO101" s="38"/>
+      <c r="EP101" s="38"/>
+      <c r="EQ101" s="38"/>
+      <c r="ER101" s="38"/>
+      <c r="ES101" s="38"/>
+      <c r="ET101" s="38"/>
+      <c r="EU101" s="38"/>
+      <c r="EV101" s="38"/>
+      <c r="EW101" s="38"/>
+      <c r="EX101" s="38"/>
+      <c r="EY101" s="38"/>
+      <c r="EZ101" s="38"/>
+      <c r="FA101" s="38"/>
+      <c r="FB101" s="38"/>
+      <c r="FC101" s="38"/>
+      <c r="FD101" s="38"/>
+      <c r="FE101" s="38"/>
+      <c r="FF101" s="38"/>
+      <c r="FG101" s="38"/>
+    </row>
+    <row r="102" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="56">
+        <v>80</v>
+      </c>
+      <c r="E102" s="56">
+        <v>1</v>
+      </c>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="8"/>
+      <c r="DW102" s="38"/>
+      <c r="DX102" s="38"/>
+      <c r="DY102" s="38"/>
+      <c r="DZ102" s="38"/>
+      <c r="EA102" s="38"/>
+      <c r="EB102" s="38"/>
+      <c r="EC102" s="38"/>
+      <c r="ED102" s="38"/>
+      <c r="EE102" s="38"/>
+      <c r="EF102" s="38"/>
+      <c r="EG102" s="38"/>
+      <c r="EH102" s="38"/>
+      <c r="EI102" s="38"/>
+      <c r="EJ102" s="38"/>
+      <c r="EK102" s="38"/>
+      <c r="EL102" s="38"/>
+      <c r="EM102" s="38"/>
+      <c r="EN102" s="38"/>
+      <c r="EO102" s="38"/>
+      <c r="EP102" s="38"/>
+      <c r="EQ102" s="38"/>
+      <c r="ER102" s="38"/>
+      <c r="ES102" s="38"/>
+      <c r="ET102" s="38"/>
+      <c r="EU102" s="38"/>
+      <c r="EV102" s="38"/>
+      <c r="EW102" s="38"/>
+      <c r="EX102" s="38"/>
+      <c r="EY102" s="38"/>
+      <c r="EZ102" s="38"/>
+      <c r="FA102" s="38"/>
+      <c r="FB102" s="38"/>
+      <c r="FC102" s="38"/>
+      <c r="FD102" s="38"/>
+      <c r="FE102" s="38"/>
+      <c r="FF102" s="38"/>
+      <c r="FG102" s="38"/>
+    </row>
+    <row r="103" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="56">
+        <v>81</v>
+      </c>
+      <c r="E103" s="56">
+        <v>1</v>
+      </c>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="8"/>
+      <c r="DW103" s="38"/>
+      <c r="DX103" s="38"/>
+      <c r="DY103" s="38"/>
+      <c r="DZ103" s="38"/>
+      <c r="EA103" s="38"/>
+      <c r="EB103" s="38"/>
+      <c r="EC103" s="38"/>
+      <c r="ED103" s="38"/>
+      <c r="EE103" s="38"/>
+      <c r="EF103" s="38"/>
+      <c r="EG103" s="38"/>
+      <c r="EH103" s="38"/>
+      <c r="EI103" s="38"/>
+      <c r="EJ103" s="38"/>
+      <c r="EK103" s="38"/>
+      <c r="EL103" s="38"/>
+      <c r="EM103" s="38"/>
+      <c r="EN103" s="38"/>
+      <c r="EO103" s="38"/>
+      <c r="EP103" s="38"/>
+      <c r="EQ103" s="38"/>
+      <c r="ER103" s="38"/>
+      <c r="ES103" s="38"/>
+      <c r="ET103" s="38"/>
+      <c r="EU103" s="38"/>
+      <c r="EV103" s="38"/>
+      <c r="EW103" s="38"/>
+      <c r="EX103" s="38"/>
+      <c r="EY103" s="38"/>
+      <c r="EZ103" s="38"/>
+      <c r="FA103" s="38"/>
+      <c r="FB103" s="38"/>
+      <c r="FC103" s="38"/>
+      <c r="FD103" s="38"/>
+      <c r="FE103" s="38"/>
+      <c r="FF103" s="38"/>
+      <c r="FG103" s="38"/>
+    </row>
+    <row r="104" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="52"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="8"/>
+      <c r="DW104" s="38"/>
+      <c r="DX104" s="38"/>
+      <c r="DY104" s="38"/>
+      <c r="DZ104" s="38"/>
+      <c r="EA104" s="38"/>
+      <c r="EB104" s="38"/>
+      <c r="EC104" s="38"/>
+      <c r="ED104" s="38"/>
+      <c r="EE104" s="38"/>
+      <c r="EF104" s="38"/>
+      <c r="EG104" s="38"/>
+      <c r="EH104" s="38"/>
+      <c r="EI104" s="38"/>
+      <c r="EJ104" s="38"/>
+      <c r="EK104" s="38"/>
+      <c r="EL104" s="38"/>
+      <c r="EM104" s="38"/>
+      <c r="EN104" s="38"/>
+      <c r="EO104" s="38"/>
+      <c r="EP104" s="38"/>
+      <c r="EQ104" s="38"/>
+      <c r="ER104" s="38"/>
+      <c r="ES104" s="38"/>
+      <c r="ET104" s="38"/>
+      <c r="EU104" s="38"/>
+      <c r="EV104" s="38"/>
+      <c r="EW104" s="38"/>
+      <c r="EX104" s="38"/>
+      <c r="EY104" s="38"/>
+      <c r="EZ104" s="38"/>
+      <c r="FA104" s="38"/>
+      <c r="FB104" s="38"/>
+      <c r="FC104" s="38"/>
+      <c r="FD104" s="38"/>
+      <c r="FE104" s="38"/>
+      <c r="FF104" s="38"/>
+      <c r="FG104" s="38"/>
+    </row>
+    <row r="105" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="52"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="8"/>
+      <c r="DW105" s="38"/>
+      <c r="DX105" s="38"/>
+      <c r="DY105" s="38"/>
+      <c r="DZ105" s="38"/>
+      <c r="EA105" s="38"/>
+      <c r="EB105" s="38"/>
+      <c r="EC105" s="38"/>
+      <c r="ED105" s="38"/>
+      <c r="EE105" s="38"/>
+      <c r="EF105" s="38"/>
+      <c r="EG105" s="38"/>
+      <c r="EH105" s="38"/>
+      <c r="EI105" s="38"/>
+      <c r="EJ105" s="38"/>
+      <c r="EK105" s="38"/>
+      <c r="EL105" s="38"/>
+      <c r="EM105" s="38"/>
+      <c r="EN105" s="38"/>
+      <c r="EO105" s="38"/>
+      <c r="EP105" s="38"/>
+      <c r="EQ105" s="38"/>
+      <c r="ER105" s="38"/>
+      <c r="ES105" s="38"/>
+      <c r="ET105" s="38"/>
+      <c r="EU105" s="38"/>
+      <c r="EV105" s="38"/>
+      <c r="EW105" s="38"/>
+      <c r="EX105" s="38"/>
+      <c r="EY105" s="38"/>
+      <c r="EZ105" s="38"/>
+      <c r="FA105" s="38"/>
+      <c r="FB105" s="38"/>
+      <c r="FC105" s="38"/>
+      <c r="FD105" s="38"/>
+      <c r="FE105" s="38"/>
+      <c r="FF105" s="38"/>
+      <c r="FG105" s="38"/>
+    </row>
+    <row r="106" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="52"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="8"/>
+      <c r="DW106" s="38"/>
+      <c r="DX106" s="38"/>
+      <c r="DY106" s="38"/>
+      <c r="DZ106" s="38"/>
+      <c r="EA106" s="38"/>
+      <c r="EB106" s="38"/>
+      <c r="EC106" s="38"/>
+      <c r="ED106" s="38"/>
+      <c r="EE106" s="38"/>
+      <c r="EF106" s="38"/>
+      <c r="EG106" s="38"/>
+      <c r="EH106" s="38"/>
+      <c r="EI106" s="38"/>
+      <c r="EJ106" s="38"/>
+      <c r="EK106" s="38"/>
+      <c r="EL106" s="38"/>
+      <c r="EM106" s="38"/>
+      <c r="EN106" s="38"/>
+      <c r="EO106" s="38"/>
+      <c r="EP106" s="38"/>
+      <c r="EQ106" s="38"/>
+      <c r="ER106" s="38"/>
+      <c r="ES106" s="38"/>
+      <c r="ET106" s="38"/>
+      <c r="EU106" s="38"/>
+      <c r="EV106" s="38"/>
+      <c r="EW106" s="38"/>
+      <c r="EX106" s="38"/>
+      <c r="EY106" s="38"/>
+      <c r="EZ106" s="38"/>
+      <c r="FA106" s="38"/>
+      <c r="FB106" s="38"/>
+      <c r="FC106" s="38"/>
+      <c r="FD106" s="38"/>
+      <c r="FE106" s="38"/>
+      <c r="FF106" s="38"/>
+      <c r="FG106" s="38"/>
+    </row>
+    <row r="107" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" s="7">
+        <v>92</v>
+      </c>
+      <c r="E107" s="7">
+        <v>13</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="8">
+        <v>0</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="DW107" s="38"/>
+      <c r="DX107" s="38"/>
+      <c r="DY107" s="38"/>
+      <c r="DZ107" s="38"/>
+      <c r="EA107" s="38"/>
+      <c r="EB107" s="38"/>
+      <c r="EC107" s="38"/>
+      <c r="ED107" s="38"/>
+      <c r="EE107" s="38"/>
+      <c r="EF107" s="38"/>
+      <c r="EG107" s="38"/>
+      <c r="EH107" s="38"/>
+      <c r="EI107" s="38"/>
+      <c r="EJ107" s="38"/>
+      <c r="EK107" s="38"/>
+      <c r="EL107" s="38"/>
+      <c r="EM107" s="38"/>
+      <c r="EN107" s="38"/>
+      <c r="EO107" s="38"/>
+      <c r="EP107" s="38"/>
+      <c r="EQ107" s="38"/>
+      <c r="ER107" s="38"/>
+      <c r="ES107" s="38"/>
+      <c r="ET107" s="38"/>
+      <c r="EU107" s="38"/>
+      <c r="EV107" s="38"/>
+      <c r="EW107" s="38"/>
+      <c r="EX107" s="38"/>
+      <c r="EY107" s="38"/>
+      <c r="EZ107" s="38"/>
+      <c r="FA107" s="38"/>
+      <c r="FB107" s="38"/>
+      <c r="FC107" s="38"/>
+      <c r="FD107" s="38"/>
+      <c r="FE107" s="38"/>
+      <c r="FF107" s="38"/>
+      <c r="FG107" s="38"/>
+    </row>
+    <row r="108" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" s="90">
+        <v>92</v>
+      </c>
+      <c r="E108" s="90">
+        <v>1</v>
+      </c>
+      <c r="F108" s="90"/>
+      <c r="G108" s="90"/>
+      <c r="H108" s="91"/>
+      <c r="I108" s="8"/>
+      <c r="DW108" s="38"/>
+      <c r="DX108" s="38"/>
+      <c r="DY108" s="38"/>
+      <c r="DZ108" s="38"/>
+      <c r="EA108" s="38"/>
+      <c r="EB108" s="38"/>
+      <c r="EC108" s="38"/>
+      <c r="ED108" s="38"/>
+      <c r="EE108" s="38"/>
+      <c r="EF108" s="38"/>
+      <c r="EG108" s="38"/>
+      <c r="EH108" s="38"/>
+      <c r="EI108" s="38"/>
+      <c r="EJ108" s="38"/>
+      <c r="EK108" s="38"/>
+      <c r="EL108" s="38"/>
+      <c r="EM108" s="38"/>
+      <c r="EN108" s="38"/>
+      <c r="EO108" s="38"/>
+      <c r="EP108" s="38"/>
+      <c r="EQ108" s="38"/>
+      <c r="ER108" s="38"/>
+      <c r="ES108" s="38"/>
+      <c r="ET108" s="38"/>
+      <c r="EU108" s="38"/>
+      <c r="EV108" s="38"/>
+      <c r="EW108" s="38"/>
+      <c r="EX108" s="38"/>
+      <c r="EY108" s="38"/>
+      <c r="EZ108" s="38"/>
+      <c r="FA108" s="38"/>
+      <c r="FB108" s="38"/>
+      <c r="FC108" s="38"/>
+      <c r="FD108" s="38"/>
+      <c r="FE108" s="38"/>
+      <c r="FF108" s="38"/>
+      <c r="FG108" s="38"/>
+    </row>
+    <row r="109" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D109" s="56">
+        <v>93</v>
+      </c>
+      <c r="E109" s="56">
+        <v>1</v>
+      </c>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="8"/>
+      <c r="DW109" s="38"/>
+      <c r="DX109" s="38"/>
+      <c r="DY109" s="38"/>
+      <c r="DZ109" s="38"/>
+      <c r="EA109" s="38"/>
+      <c r="EB109" s="38"/>
+      <c r="EC109" s="38"/>
+      <c r="ED109" s="38"/>
+      <c r="EE109" s="38"/>
+      <c r="EF109" s="38"/>
+      <c r="EG109" s="38"/>
+      <c r="EH109" s="38"/>
+      <c r="EI109" s="38"/>
+      <c r="EJ109" s="38"/>
+      <c r="EK109" s="38"/>
+      <c r="EL109" s="38"/>
+      <c r="EM109" s="38"/>
+      <c r="EN109" s="38"/>
+      <c r="EO109" s="38"/>
+      <c r="EP109" s="38"/>
+      <c r="EQ109" s="38"/>
+      <c r="ER109" s="38"/>
+      <c r="ES109" s="38"/>
+      <c r="ET109" s="38"/>
+      <c r="EU109" s="38"/>
+      <c r="EV109" s="38"/>
+      <c r="EW109" s="38"/>
+      <c r="EX109" s="38"/>
+      <c r="EY109" s="38"/>
+      <c r="EZ109" s="38"/>
+      <c r="FA109" s="38"/>
+      <c r="FB109" s="38"/>
+      <c r="FC109" s="38"/>
+      <c r="FD109" s="38"/>
+      <c r="FE109" s="38"/>
+      <c r="FF109" s="38"/>
+      <c r="FG109" s="38"/>
+    </row>
+    <row r="110" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="56">
+        <v>94</v>
+      </c>
+      <c r="E110" s="56">
+        <v>1</v>
+      </c>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="8"/>
+      <c r="DW110" s="38"/>
+      <c r="DX110" s="38"/>
+      <c r="DY110" s="38"/>
+      <c r="DZ110" s="38"/>
+      <c r="EA110" s="38"/>
+      <c r="EB110" s="38"/>
+      <c r="EC110" s="38"/>
+      <c r="ED110" s="38"/>
+      <c r="EE110" s="38"/>
+      <c r="EF110" s="38"/>
+      <c r="EG110" s="38"/>
+      <c r="EH110" s="38"/>
+      <c r="EI110" s="38"/>
+      <c r="EJ110" s="38"/>
+      <c r="EK110" s="38"/>
+      <c r="EL110" s="38"/>
+      <c r="EM110" s="38"/>
+      <c r="EN110" s="38"/>
+      <c r="EO110" s="38"/>
+      <c r="EP110" s="38"/>
+      <c r="EQ110" s="38"/>
+      <c r="ER110" s="38"/>
+      <c r="ES110" s="38"/>
+      <c r="ET110" s="38"/>
+      <c r="EU110" s="38"/>
+      <c r="EV110" s="38"/>
+      <c r="EW110" s="38"/>
+      <c r="EX110" s="38"/>
+      <c r="EY110" s="38"/>
+      <c r="EZ110" s="38"/>
+      <c r="FA110" s="38"/>
+      <c r="FB110" s="38"/>
+      <c r="FC110" s="38"/>
+      <c r="FD110" s="38"/>
+      <c r="FE110" s="38"/>
+      <c r="FF110" s="38"/>
+      <c r="FG110" s="38"/>
+    </row>
+    <row r="111" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D111" s="56">
+        <v>95</v>
+      </c>
+      <c r="E111" s="56">
+        <v>18</v>
+      </c>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="8"/>
+      <c r="DW111" s="38"/>
+      <c r="DX111" s="38"/>
+      <c r="DY111" s="38"/>
+      <c r="DZ111" s="38"/>
+      <c r="EA111" s="38"/>
+      <c r="EB111" s="38"/>
+      <c r="EC111" s="38"/>
+      <c r="ED111" s="38"/>
+      <c r="EE111" s="38"/>
+      <c r="EF111" s="38"/>
+      <c r="EG111" s="38"/>
+      <c r="EH111" s="38"/>
+      <c r="EI111" s="38"/>
+      <c r="EJ111" s="38"/>
+      <c r="EK111" s="38"/>
+      <c r="EL111" s="38"/>
+      <c r="EM111" s="38"/>
+      <c r="EN111" s="38"/>
+      <c r="EO111" s="38"/>
+      <c r="EP111" s="38"/>
+      <c r="EQ111" s="38"/>
+      <c r="ER111" s="38"/>
+      <c r="ES111" s="38"/>
+      <c r="ET111" s="38"/>
+      <c r="EU111" s="38"/>
+      <c r="EV111" s="38"/>
+      <c r="EW111" s="38"/>
+      <c r="EX111" s="38"/>
+      <c r="EY111" s="38"/>
+      <c r="EZ111" s="38"/>
+      <c r="FA111" s="38"/>
+      <c r="FB111" s="38"/>
+      <c r="FC111" s="38"/>
+      <c r="FD111" s="38"/>
+      <c r="FE111" s="38"/>
+      <c r="FF111" s="38"/>
+      <c r="FG111" s="38"/>
+    </row>
+    <row r="112" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="52"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="8"/>
+      <c r="DW112" s="38"/>
+      <c r="DX112" s="38"/>
+      <c r="DY112" s="38"/>
+      <c r="DZ112" s="38"/>
+      <c r="EA112" s="38"/>
+      <c r="EB112" s="38"/>
+      <c r="EC112" s="38"/>
+      <c r="ED112" s="38"/>
+      <c r="EE112" s="38"/>
+      <c r="EF112" s="38"/>
+      <c r="EG112" s="38"/>
+      <c r="EH112" s="38"/>
+      <c r="EI112" s="38"/>
+      <c r="EJ112" s="38"/>
+      <c r="EK112" s="38"/>
+      <c r="EL112" s="38"/>
+      <c r="EM112" s="38"/>
+      <c r="EN112" s="38"/>
+      <c r="EO112" s="38"/>
+      <c r="EP112" s="38"/>
+      <c r="EQ112" s="38"/>
+      <c r="ER112" s="38"/>
+      <c r="ES112" s="38"/>
+      <c r="ET112" s="38"/>
+      <c r="EU112" s="38"/>
+      <c r="EV112" s="38"/>
+      <c r="EW112" s="38"/>
+      <c r="EX112" s="38"/>
+      <c r="EY112" s="38"/>
+      <c r="EZ112" s="38"/>
+      <c r="FA112" s="38"/>
+      <c r="FB112" s="38"/>
+      <c r="FC112" s="38"/>
+      <c r="FD112" s="38"/>
+      <c r="FE112" s="38"/>
+      <c r="FF112" s="38"/>
+      <c r="FG112" s="38"/>
+    </row>
+    <row r="113" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="52"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="8"/>
+      <c r="DW113" s="38"/>
+      <c r="DX113" s="38"/>
+      <c r="DY113" s="38"/>
+      <c r="DZ113" s="38"/>
+      <c r="EA113" s="38"/>
+      <c r="EB113" s="38"/>
+      <c r="EC113" s="38"/>
+      <c r="ED113" s="38"/>
+      <c r="EE113" s="38"/>
+      <c r="EF113" s="38"/>
+      <c r="EG113" s="38"/>
+      <c r="EH113" s="38"/>
+      <c r="EI113" s="38"/>
+      <c r="EJ113" s="38"/>
+      <c r="EK113" s="38"/>
+      <c r="EL113" s="38"/>
+      <c r="EM113" s="38"/>
+      <c r="EN113" s="38"/>
+      <c r="EO113" s="38"/>
+      <c r="EP113" s="38"/>
+      <c r="EQ113" s="38"/>
+      <c r="ER113" s="38"/>
+      <c r="ES113" s="38"/>
+      <c r="ET113" s="38"/>
+      <c r="EU113" s="38"/>
+      <c r="EV113" s="38"/>
+      <c r="EW113" s="38"/>
+      <c r="EX113" s="38"/>
+      <c r="EY113" s="38"/>
+      <c r="EZ113" s="38"/>
+      <c r="FA113" s="38"/>
+      <c r="FB113" s="38"/>
+      <c r="FC113" s="38"/>
+      <c r="FD113" s="38"/>
+      <c r="FE113" s="38"/>
+      <c r="FF113" s="38"/>
+      <c r="FG113" s="38"/>
+    </row>
+    <row r="114" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="52"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="8"/>
+      <c r="DW114" s="38"/>
+      <c r="DX114" s="38"/>
+      <c r="DY114" s="38"/>
+      <c r="DZ114" s="38"/>
+      <c r="EA114" s="38"/>
+      <c r="EB114" s="38"/>
+      <c r="EC114" s="38"/>
+      <c r="ED114" s="38"/>
+      <c r="EE114" s="38"/>
+      <c r="EF114" s="38"/>
+      <c r="EG114" s="38"/>
+      <c r="EH114" s="38"/>
+      <c r="EI114" s="38"/>
+      <c r="EJ114" s="38"/>
+      <c r="EK114" s="38"/>
+      <c r="EL114" s="38"/>
+      <c r="EM114" s="38"/>
+      <c r="EN114" s="38"/>
+      <c r="EO114" s="38"/>
+      <c r="EP114" s="38"/>
+      <c r="EQ114" s="38"/>
+      <c r="ER114" s="38"/>
+      <c r="ES114" s="38"/>
+      <c r="ET114" s="38"/>
+      <c r="EU114" s="38"/>
+      <c r="EV114" s="38"/>
+      <c r="EW114" s="38"/>
+      <c r="EX114" s="38"/>
+      <c r="EY114" s="38"/>
+      <c r="EZ114" s="38"/>
+      <c r="FA114" s="38"/>
+      <c r="FB114" s="38"/>
+      <c r="FC114" s="38"/>
+      <c r="FD114" s="38"/>
+      <c r="FE114" s="38"/>
+      <c r="FF114" s="38"/>
+      <c r="FG114" s="38"/>
+    </row>
+    <row r="115" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="52"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="8"/>
+      <c r="DW115" s="38"/>
+      <c r="DX115" s="38"/>
+      <c r="DY115" s="38"/>
+      <c r="DZ115" s="38"/>
+      <c r="EA115" s="38"/>
+      <c r="EB115" s="38"/>
+      <c r="EC115" s="38"/>
+      <c r="ED115" s="38"/>
+      <c r="EE115" s="38"/>
+      <c r="EF115" s="38"/>
+      <c r="EG115" s="38"/>
+      <c r="EH115" s="38"/>
+      <c r="EI115" s="38"/>
+      <c r="EJ115" s="38"/>
+      <c r="EK115" s="38"/>
+      <c r="EL115" s="38"/>
+      <c r="EM115" s="38"/>
+      <c r="EN115" s="38"/>
+      <c r="EO115" s="38"/>
+      <c r="EP115" s="38"/>
+      <c r="EQ115" s="38"/>
+      <c r="ER115" s="38"/>
+      <c r="ES115" s="38"/>
+      <c r="ET115" s="38"/>
+      <c r="EU115" s="38"/>
+      <c r="EV115" s="38"/>
+      <c r="EW115" s="38"/>
+      <c r="EX115" s="38"/>
+      <c r="EY115" s="38"/>
+      <c r="EZ115" s="38"/>
+      <c r="FA115" s="38"/>
+      <c r="FB115" s="38"/>
+      <c r="FC115" s="38"/>
+      <c r="FD115" s="38"/>
+      <c r="FE115" s="38"/>
+      <c r="FF115" s="38"/>
+      <c r="FG115" s="38"/>
+    </row>
+    <row r="116" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="52"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="8"/>
+      <c r="DW116" s="38"/>
+      <c r="DX116" s="38"/>
+      <c r="DY116" s="38"/>
+      <c r="DZ116" s="38"/>
+      <c r="EA116" s="38"/>
+      <c r="EB116" s="38"/>
+      <c r="EC116" s="38"/>
+      <c r="ED116" s="38"/>
+      <c r="EE116" s="38"/>
+      <c r="EF116" s="38"/>
+      <c r="EG116" s="38"/>
+      <c r="EH116" s="38"/>
+      <c r="EI116" s="38"/>
+      <c r="EJ116" s="38"/>
+      <c r="EK116" s="38"/>
+      <c r="EL116" s="38"/>
+      <c r="EM116" s="38"/>
+      <c r="EN116" s="38"/>
+      <c r="EO116" s="38"/>
+      <c r="EP116" s="38"/>
+      <c r="EQ116" s="38"/>
+      <c r="ER116" s="38"/>
+      <c r="ES116" s="38"/>
+      <c r="ET116" s="38"/>
+      <c r="EU116" s="38"/>
+      <c r="EV116" s="38"/>
+      <c r="EW116" s="38"/>
+      <c r="EX116" s="38"/>
+      <c r="EY116" s="38"/>
+      <c r="EZ116" s="38"/>
+      <c r="FA116" s="38"/>
+      <c r="FB116" s="38"/>
+      <c r="FC116" s="38"/>
+      <c r="FD116" s="38"/>
+      <c r="FE116" s="38"/>
+      <c r="FF116" s="38"/>
+      <c r="FG116" s="38"/>
+    </row>
+    <row r="117" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="52"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="8"/>
+      <c r="DW117" s="38"/>
+      <c r="DX117" s="38"/>
+      <c r="DY117" s="38"/>
+      <c r="DZ117" s="38"/>
+      <c r="EA117" s="38"/>
+      <c r="EB117" s="38"/>
+      <c r="EC117" s="38"/>
+      <c r="ED117" s="38"/>
+      <c r="EE117" s="38"/>
+      <c r="EF117" s="38"/>
+      <c r="EG117" s="38"/>
+      <c r="EH117" s="38"/>
+      <c r="EI117" s="38"/>
+      <c r="EJ117" s="38"/>
+      <c r="EK117" s="38"/>
+      <c r="EL117" s="38"/>
+      <c r="EM117" s="38"/>
+      <c r="EN117" s="38"/>
+      <c r="EO117" s="38"/>
+      <c r="EP117" s="38"/>
+      <c r="EQ117" s="38"/>
+      <c r="ER117" s="38"/>
+      <c r="ES117" s="38"/>
+      <c r="ET117" s="38"/>
+      <c r="EU117" s="38"/>
+      <c r="EV117" s="38"/>
+      <c r="EW117" s="38"/>
+      <c r="EX117" s="38"/>
+      <c r="EY117" s="38"/>
+      <c r="EZ117" s="38"/>
+      <c r="FA117" s="38"/>
+      <c r="FB117" s="38"/>
+      <c r="FC117" s="38"/>
+      <c r="FD117" s="38"/>
+      <c r="FE117" s="38"/>
+      <c r="FF117" s="38"/>
+      <c r="FG117" s="38"/>
+    </row>
+    <row r="118" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="DW118" s="38"/>
+      <c r="DX118" s="38"/>
+      <c r="DY118" s="38"/>
+      <c r="DZ118" s="38"/>
+      <c r="EA118" s="38"/>
+      <c r="EB118" s="38"/>
+      <c r="EC118" s="38"/>
+      <c r="ED118" s="38"/>
+      <c r="EE118" s="38"/>
+      <c r="EF118" s="38"/>
+      <c r="EG118" s="38"/>
+      <c r="EH118" s="38"/>
+      <c r="EI118" s="38"/>
+      <c r="EJ118" s="38"/>
+      <c r="EK118" s="38"/>
+      <c r="EL118" s="38"/>
+      <c r="EM118" s="38"/>
+      <c r="EN118" s="38"/>
+      <c r="EO118" s="38"/>
+      <c r="EP118" s="38"/>
+      <c r="EQ118" s="38"/>
+      <c r="ER118" s="38"/>
+      <c r="ES118" s="38"/>
+      <c r="ET118" s="38"/>
+      <c r="EU118" s="38"/>
+      <c r="EV118" s="38"/>
+      <c r="EW118" s="38"/>
+      <c r="EX118" s="38"/>
+      <c r="EY118" s="38"/>
+      <c r="EZ118" s="38"/>
+      <c r="FA118" s="38"/>
+      <c r="FB118" s="38"/>
+      <c r="FC118" s="38"/>
+      <c r="FD118" s="38"/>
+      <c r="FE118" s="38"/>
+      <c r="FF118" s="38"/>
+      <c r="FG118" s="38"/>
+    </row>
+    <row r="119" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="DW119" s="38"/>
+      <c r="DX119" s="38"/>
+      <c r="DY119" s="38"/>
+      <c r="DZ119" s="38"/>
+      <c r="EA119" s="38"/>
+      <c r="EB119" s="38"/>
+      <c r="EC119" s="38"/>
+      <c r="ED119" s="38"/>
+      <c r="EE119" s="38"/>
+      <c r="EF119" s="38"/>
+      <c r="EG119" s="38"/>
+      <c r="EH119" s="38"/>
+      <c r="EI119" s="38"/>
+      <c r="EJ119" s="38"/>
+      <c r="EK119" s="38"/>
+      <c r="EL119" s="38"/>
+      <c r="EM119" s="38"/>
+      <c r="EN119" s="38"/>
+      <c r="EO119" s="38"/>
+      <c r="EP119" s="38"/>
+      <c r="EQ119" s="38"/>
+      <c r="ER119" s="38"/>
+      <c r="ES119" s="38"/>
+      <c r="ET119" s="38"/>
+      <c r="EU119" s="38"/>
+      <c r="EV119" s="38"/>
+      <c r="EW119" s="38"/>
+      <c r="EX119" s="38"/>
+      <c r="EY119" s="38"/>
+      <c r="EZ119" s="38"/>
+      <c r="FA119" s="38"/>
+      <c r="FB119" s="38"/>
+      <c r="FC119" s="38"/>
+      <c r="FD119" s="38"/>
+      <c r="FE119" s="38"/>
+      <c r="FF119" s="38"/>
+      <c r="FG119" s="38"/>
+    </row>
+    <row r="120" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="DW120" s="38"/>
+      <c r="DX120" s="38"/>
+      <c r="DY120" s="38"/>
+      <c r="DZ120" s="38"/>
+      <c r="EA120" s="38"/>
+      <c r="EB120" s="38"/>
+      <c r="EC120" s="38"/>
+      <c r="ED120" s="38"/>
+      <c r="EE120" s="38"/>
+      <c r="EF120" s="38"/>
+      <c r="EG120" s="38"/>
+      <c r="EH120" s="38"/>
+      <c r="EI120" s="38"/>
+      <c r="EJ120" s="38"/>
+      <c r="EK120" s="38"/>
+      <c r="EL120" s="38"/>
+      <c r="EM120" s="38"/>
+      <c r="EN120" s="38"/>
+      <c r="EO120" s="38"/>
+      <c r="EP120" s="38"/>
+      <c r="EQ120" s="38"/>
+      <c r="ER120" s="38"/>
+      <c r="ES120" s="38"/>
+      <c r="ET120" s="38"/>
+      <c r="EU120" s="38"/>
+      <c r="EV120" s="38"/>
+      <c r="EW120" s="38"/>
+      <c r="EX120" s="38"/>
+      <c r="EY120" s="38"/>
+      <c r="EZ120" s="38"/>
+      <c r="FA120" s="38"/>
+      <c r="FB120" s="38"/>
+      <c r="FC120" s="38"/>
+      <c r="FD120" s="38"/>
+      <c r="FE120" s="38"/>
+      <c r="FF120" s="38"/>
+      <c r="FG120" s="38"/>
+    </row>
+    <row r="121" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="DW121" s="38"/>
+      <c r="DX121" s="38"/>
+      <c r="DY121" s="38"/>
+      <c r="DZ121" s="38"/>
+      <c r="EA121" s="38"/>
+      <c r="EB121" s="38"/>
+      <c r="EC121" s="38"/>
+      <c r="ED121" s="38"/>
+      <c r="EE121" s="38"/>
+      <c r="EF121" s="38"/>
+      <c r="EG121" s="38"/>
+      <c r="EH121" s="38"/>
+      <c r="EI121" s="38"/>
+      <c r="EJ121" s="38"/>
+      <c r="EK121" s="38"/>
+      <c r="EL121" s="38"/>
+      <c r="EM121" s="38"/>
+      <c r="EN121" s="38"/>
+      <c r="EO121" s="38"/>
+      <c r="EP121" s="38"/>
+      <c r="EQ121" s="38"/>
+      <c r="ER121" s="38"/>
+      <c r="ES121" s="38"/>
+      <c r="ET121" s="38"/>
+      <c r="EU121" s="38"/>
+      <c r="EV121" s="38"/>
+      <c r="EW121" s="38"/>
+      <c r="EX121" s="38"/>
+      <c r="EY121" s="38"/>
+      <c r="EZ121" s="38"/>
+      <c r="FA121" s="38"/>
+      <c r="FB121" s="38"/>
+      <c r="FC121" s="38"/>
+      <c r="FD121" s="38"/>
+      <c r="FE121" s="38"/>
+      <c r="FF121" s="38"/>
+      <c r="FG121" s="38"/>
+    </row>
+    <row r="122" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="DW122" s="38"/>
+      <c r="DX122" s="38"/>
+      <c r="DY122" s="38"/>
+      <c r="DZ122" s="38"/>
+      <c r="EA122" s="38"/>
+      <c r="EB122" s="38"/>
+      <c r="EC122" s="38"/>
+      <c r="ED122" s="38"/>
+      <c r="EE122" s="38"/>
+      <c r="EF122" s="38"/>
+      <c r="EG122" s="38"/>
+      <c r="EH122" s="38"/>
+      <c r="EI122" s="38"/>
+      <c r="EJ122" s="38"/>
+      <c r="EK122" s="38"/>
+      <c r="EL122" s="38"/>
+      <c r="EM122" s="38"/>
+      <c r="EN122" s="38"/>
+      <c r="EO122" s="38"/>
+      <c r="EP122" s="38"/>
+      <c r="EQ122" s="38"/>
+      <c r="ER122" s="38"/>
+      <c r="ES122" s="38"/>
+      <c r="ET122" s="38"/>
+      <c r="EU122" s="38"/>
+      <c r="EV122" s="38"/>
+      <c r="EW122" s="38"/>
+      <c r="EX122" s="38"/>
+      <c r="EY122" s="38"/>
+      <c r="EZ122" s="38"/>
+      <c r="FA122" s="38"/>
+      <c r="FB122" s="38"/>
+      <c r="FC122" s="38"/>
+      <c r="FD122" s="38"/>
+      <c r="FE122" s="38"/>
+      <c r="FF122" s="38"/>
+      <c r="FG122" s="38"/>
+    </row>
+    <row r="123" spans="2:163" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="DW123" s="38"/>
+      <c r="DX123" s="38"/>
+      <c r="DY123" s="38"/>
+      <c r="DZ123" s="38"/>
+      <c r="EA123" s="38"/>
+      <c r="EB123" s="38"/>
+      <c r="EC123" s="38"/>
+      <c r="ED123" s="38"/>
+      <c r="EE123" s="38"/>
+      <c r="EF123" s="38"/>
+      <c r="EG123" s="38"/>
+      <c r="EH123" s="38"/>
+      <c r="EI123" s="38"/>
+      <c r="EJ123" s="38"/>
+      <c r="EK123" s="38"/>
+      <c r="EL123" s="38"/>
+      <c r="EM123" s="38"/>
+      <c r="EN123" s="38"/>
+      <c r="EO123" s="38"/>
+      <c r="EP123" s="38"/>
+      <c r="EQ123" s="38"/>
+      <c r="ER123" s="38"/>
+      <c r="ES123" s="38"/>
+      <c r="ET123" s="38"/>
+      <c r="EU123" s="38"/>
+      <c r="EV123" s="38"/>
+      <c r="EW123" s="38"/>
+      <c r="EX123" s="38"/>
+      <c r="EY123" s="38"/>
+      <c r="EZ123" s="38"/>
+      <c r="FA123" s="38"/>
+      <c r="FB123" s="38"/>
+      <c r="FC123" s="38"/>
+      <c r="FD123" s="38"/>
+      <c r="FE123" s="38"/>
+      <c r="FF123" s="38"/>
+      <c r="FG123" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="H8:H9"/>
@@ -7208,39 +9648,78 @@
     <mergeCell ref="CT2:CT7"/>
     <mergeCell ref="CU2:CU7"/>
   </mergeCells>
-  <conditionalFormatting sqref="B92:BQ92">
-    <cfRule type="expression" dxfId="9" priority="2">
+  <conditionalFormatting sqref="B124:BQ124">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:DV9">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>J$9=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:FG91">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="J10:FG46 K47:FG47 J48:FG53 J54:AN54 AQ54:FG54">
+    <cfRule type="expression" dxfId="18" priority="15">
+      <formula>J$9=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:FG46 K47:FG47 J48:FG53 J54:AO54 AQ54:FG54">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:FG123">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>J$9=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO54">
+    <cfRule type="expression" dxfId="2" priority="34">
+      <formula>AP$9=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="35">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
